--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_2_27.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_2_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1925130.110027147</v>
+        <v>1887093.493845871</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>421727.3537779178</v>
+        <v>421727.3537779183</v>
       </c>
     </row>
     <row r="8">
@@ -673,10 +673,10 @@
         <v>7.293863480540836</v>
       </c>
       <c r="G2" t="n">
-        <v>274.2838073416025</v>
+        <v>14.85476540383092</v>
       </c>
       <c r="H2" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>205.224307868124</v>
@@ -709,13 +709,13 @@
         <v>141.8508227008771</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>214.4088038782139</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>160.8447136639815</v>
+        <v>274.2838073416025</v>
       </c>
     </row>
     <row r="3">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>165.3721256103448</v>
+        <v>127.2968240661699</v>
       </c>
       <c r="C3" t="n">
         <v>171.025583927401</v>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I3" t="n">
         <v>86.50354346547167</v>
@@ -791,22 +791,22 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>87.29414192636341</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>164.138716923775</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>128.2491389318542</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,16 +904,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>226.07513496809</v>
+        <v>7.293863480540836</v>
       </c>
       <c r="G5" t="n">
         <v>14.85476540383092</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>274.2838073416025</v>
       </c>
       <c r="W5" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -974,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F6" t="n">
-        <v>97.96098145308538</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>110.4625155221328</v>
       </c>
       <c r="I6" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>100.193213616725</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1043,7 +1043,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="7">
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>15.13315040925564</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1132,11 +1132,11 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
@@ -1144,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>274.2838073416025</v>
+        <v>7.293863480540836</v>
       </c>
       <c r="G8" t="n">
-        <v>17.96478317550055</v>
+        <v>14.85476540383092</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T8" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
+        <v>145.3493044047353</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
         <v>274.2838073416025</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1211,19 +1211,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G9" t="n">
         <v>136.0232102050423</v>
@@ -1232,7 +1232,7 @@
         <v>110.4625155221328</v>
       </c>
       <c r="I9" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,25 +1259,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>44.75502769643857</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>35.90507490100101</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.138716923775</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>313.3712938016122</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1417,19 +1417,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>63.64170646647294</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>177.493467653868</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>217.5149286494106</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3781599023558</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>328.5332215225193</v>
+        <v>30.68064691784074</v>
       </c>
       <c r="W11" t="n">
         <v>350.5301170005546</v>
@@ -1438,7 +1438,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1454,13 +1454,13 @@
         <v>171.025583927401</v>
       </c>
       <c r="D12" t="n">
-        <v>144.3623098035503</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E12" t="n">
         <v>156.0334337071738</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G12" t="n">
         <v>135.3570519053243</v>
@@ -1514,7 +1514,7 @@
         <v>249.98934675</v>
       </c>
       <c r="X12" t="n">
-        <v>204.4616296084783</v>
+        <v>59.20528375383371</v>
       </c>
       <c r="Y12" t="n">
         <v>203.671151418586</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1548,10 +1548,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>136.9633875020681</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>49.35397375491781</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>74.70442565356673</v>
       </c>
       <c r="T13" t="n">
-        <v>225.9462130081922</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1590,13 +1590,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>64.11976185155554</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="14">
@@ -1609,25 +1609,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D14" t="n">
-        <v>37.88310945467619</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>407.2938634805408</v>
       </c>
       <c r="G14" t="n">
-        <v>413.6097194764729</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>325.3930767845979</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,28 +1654,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>63.64170646647294</v>
       </c>
       <c r="S14" t="n">
         <v>177.493467653868</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V14" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.6870717512358</v>
+        <v>142.5564755088024</v>
       </c>
     </row>
     <row r="15">
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>165.3721256103448</v>
+        <v>20.11577975570017</v>
       </c>
       <c r="C15" t="n">
         <v>171.025583927401</v>
@@ -1739,7 +1739,7 @@
         <v>156.5880156630749</v>
       </c>
       <c r="T15" t="n">
-        <v>50.4411006262517</v>
+        <v>195.6974464808964</v>
       </c>
       <c r="U15" t="n">
         <v>224.6133508632724</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>98.28149991177143</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1782,13 +1782,13 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.6686349500177</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>136.9633875020681</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>49.35397375491781</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1809,25 +1809,25 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>32.99521853687121</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>148.2796428708918</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>83.51342957218336</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D17" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>413.6097194764729</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>325.3930767845979</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>157.2246747536534</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,13 +1891,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>23.06598028435448</v>
+        <v>21.31989090102593</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>251.3781599023558</v>
@@ -1906,10 +1906,10 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y17" t="n">
         <v>386.6870717512358</v>
@@ -1934,16 +1934,16 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F18" t="n">
-        <v>143.5062320835493</v>
+        <v>133.606938134229</v>
       </c>
       <c r="G18" t="n">
-        <v>135.3570519053243</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>104.0288287853823</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>53.33473024000174</v>
       </c>
       <c r="S18" t="n">
-        <v>74.89949988448734</v>
+        <v>156.5880156630749</v>
       </c>
       <c r="T18" t="n">
         <v>195.6974464808964</v>
@@ -2016,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>167.3311041893321</v>
+        <v>50.42797305210065</v>
       </c>
       <c r="H19" t="n">
-        <v>156.6686349500177</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2055,10 +2055,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>12.45004149977274</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.0218075870219</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>105.5284887615267</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E20" t="n">
         <v>383.1180357552875</v>
@@ -2095,13 +2095,13 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G20" t="n">
-        <v>413.6097194764729</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>325.3930767845979</v>
       </c>
       <c r="I20" t="n">
-        <v>157.2246747536534</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,16 +2128,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>63.64170646647293</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>233.0238479816097</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2146,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2177,10 +2177,10 @@
         <v>135.3570519053243</v>
       </c>
       <c r="H21" t="n">
-        <v>104.0288287853823</v>
+        <v>22.34031300679495</v>
       </c>
       <c r="I21" t="n">
-        <v>63.56783007605711</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>53.33473024000173</v>
+        <v>53.33473024000174</v>
       </c>
       <c r="S21" t="n">
         <v>156.5880156630749</v>
@@ -2222,7 +2222,7 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W21" t="n">
-        <v>104.7330008953557</v>
+        <v>249.98934675</v>
       </c>
       <c r="X21" t="n">
         <v>204.4616296084783</v>
@@ -2241,22 +2241,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>55.29482935519742</v>
       </c>
       <c r="H22" t="n">
-        <v>35.69196057755453</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>148.2796428708918</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>212.6245410698995</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>225.9462130081922</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>218.0027180051515</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G23" t="n">
-        <v>413.6097194764729</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>325.3930767845979</v>
       </c>
       <c r="I23" t="n">
-        <v>157.2246747536534</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>177.493467653868</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>217.5149286494106</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3781599023558</v>
+        <v>90.42521569558244</v>
       </c>
       <c r="V23" t="n">
         <v>328.5332215225193</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X23" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2408,13 +2408,13 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G24" t="n">
         <v>135.3570519053243</v>
       </c>
       <c r="H24" t="n">
-        <v>102.2787150142871</v>
+        <v>104.0288287853823</v>
       </c>
       <c r="I24" t="n">
         <v>63.56783007605712</v>
@@ -2465,7 +2465,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y24" t="n">
-        <v>203.671151418586</v>
+        <v>58.41480556394149</v>
       </c>
     </row>
     <row r="25">
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>110.5035676309304</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>143.6597934514067</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2535,10 +2535,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W25" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E26" t="n">
         <v>383.1180357552875</v>
@@ -2569,13 +2569,13 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>83.26441111428478</v>
       </c>
       <c r="H26" t="n">
-        <v>325.3930767845979</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>157.2246747536534</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,13 +2608,13 @@
         <v>177.493467653868</v>
       </c>
       <c r="T26" t="n">
-        <v>15.40524255934807</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.3781599023558</v>
       </c>
       <c r="V26" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>350.5301170005546</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="27">
@@ -2648,10 +2648,10 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G27" t="n">
-        <v>135.3570519053243</v>
+        <v>53.66853612673689</v>
       </c>
       <c r="H27" t="n">
-        <v>75.67504324679705</v>
+        <v>104.0288287853823</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>53.33473024000174</v>
       </c>
       <c r="S27" t="n">
         <v>156.5880156630749</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>180.0836914906838</v>
+        <v>110.3094207068133</v>
       </c>
       <c r="C28" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>56.37343923688373</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2775,13 +2775,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.7486738677682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2797,10 +2797,10 @@
         <v>366.9850956789426</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>152.292597856923</v>
       </c>
       <c r="E29" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>407.2938634805408</v>
@@ -2845,13 +2845,13 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>97.7077836241547</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>165.3721256103448</v>
+        <v>20.11577975570017</v>
       </c>
       <c r="C30" t="n">
         <v>171.025583927401</v>
@@ -2936,7 +2936,7 @@
         <v>249.98934675</v>
       </c>
       <c r="X30" t="n">
-        <v>59.20528375383371</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y30" t="n">
         <v>203.671151418586</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3311041893321</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>156.6686349500177</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>136.9633875020681</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>148.2796428708918</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>13.29958801422833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>50.42797305210072</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.0218075870219</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3037,19 +3037,19 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E32" t="n">
-        <v>231.6974803911678</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.6097194764729</v>
       </c>
       <c r="H32" t="n">
         <v>325.3930767845979</v>
       </c>
       <c r="I32" t="n">
-        <v>157.2246747536534</v>
+        <v>38.95414213482123</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>63.64170646647294</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>177.493467653868</v>
@@ -3125,10 +3125,10 @@
         <v>135.3570519053243</v>
       </c>
       <c r="H33" t="n">
-        <v>104.0288287853823</v>
+        <v>22.34031300679495</v>
       </c>
       <c r="I33" t="n">
-        <v>63.56783007605712</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>53.33473024000174</v>
       </c>
       <c r="S33" t="n">
-        <v>11.33166980843018</v>
+        <v>156.5880156630749</v>
       </c>
       <c r="T33" t="n">
         <v>195.6974464808964</v>
@@ -3192,13 +3192,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>41.35596201519232</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3240,13 +3240,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>83.58419887257701</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.0218075870219</v>
       </c>
       <c r="V34" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3271,22 +3271,22 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F35" t="n">
         <v>407.2938634805408</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>413.6097194764729</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>51.08315982662424</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,28 +3313,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>63.64170646647294</v>
       </c>
       <c r="S35" t="n">
-        <v>177.493467653868</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3781599023558</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>184.1301114427519</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="36">
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3435,13 +3435,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>72.59640537899605</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.3311041893321</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>156.6686349500177</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>225.9462130081922</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3489,10 +3489,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>56.37343923688373</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.7486738677682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3508,22 +3508,22 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.6097194764729</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>157.2246747536534</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,19 +3550,19 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>63.64170646647294</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>177.493467653868</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>217.5149286494106</v>
+        <v>114.7248662930972</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3781599023558</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y38" t="n">
-        <v>153.0426650537559</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="39">
@@ -3596,13 +3596,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>135.3570519053243</v>
       </c>
       <c r="H39" t="n">
-        <v>94.12953483606209</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>63.56783007605712</v>
+        <v>22.34031300679495</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.3311041893321</v>
       </c>
       <c r="H40" t="n">
         <v>156.6686349500177</v>
@@ -3714,10 +3714,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>161.5792308851202</v>
       </c>
       <c r="U40" t="n">
-        <v>286.0218075870219</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>42.88852748743034</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3742,22 +3742,22 @@
         <v>383.716409991395</v>
       </c>
       <c r="C41" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E41" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>413.6097194764729</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>219.4367072612535</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>63.64170646647294</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3796,13 +3796,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>155.0336340946953</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X41" t="n">
         <v>370.8615991311694</v>
@@ -3869,7 +3869,7 @@
         <v>53.33473024000174</v>
       </c>
       <c r="S42" t="n">
-        <v>11.33166980843018</v>
+        <v>156.5880156630749</v>
       </c>
       <c r="T42" t="n">
         <v>195.6974464808964</v>
@@ -3878,7 +3878,7 @@
         <v>224.6133508632724</v>
       </c>
       <c r="V42" t="n">
-        <v>231.9087310396551</v>
+        <v>86.65238518501074</v>
       </c>
       <c r="W42" t="n">
         <v>249.98934675</v>
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3951,16 +3951,16 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>223.4469850497944</v>
       </c>
       <c r="U43" t="n">
-        <v>286.0218075870219</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W43" t="n">
-        <v>83.58419887257689</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3979,25 +3979,25 @@
         <v>383.716409991395</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D44" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>130.2957023788876</v>
       </c>
       <c r="F44" t="n">
         <v>407.2938634805408</v>
       </c>
       <c r="G44" t="n">
-        <v>413.6097194764729</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>157.2246747536534</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,13 +4024,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>63.64170646647294</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>20.17044929081424</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="45">
@@ -4070,13 +4070,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G45" t="n">
-        <v>135.3570519053243</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>12.1072131707399</v>
+        <v>104.0288287853823</v>
       </c>
       <c r="I45" t="n">
-        <v>63.56783007605712</v>
+        <v>53.66853612673688</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>53.33473024000174</v>
       </c>
       <c r="S45" t="n">
         <v>156.5880156630749</v>
@@ -4134,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>180.0836914906838</v>
+        <v>55.30027809706768</v>
       </c>
       <c r="C46" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.3311041893321</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>212.6245410698995</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4194,7 +4194,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>62.49757203475248</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>791.3821623311992</v>
+        <v>252.2782741702153</v>
       </c>
       <c r="C2" t="n">
-        <v>791.3821623311992</v>
+        <v>252.2782741702153</v>
       </c>
       <c r="D2" t="n">
-        <v>791.3821623311992</v>
+        <v>252.2782741702153</v>
       </c>
       <c r="E2" t="n">
-        <v>791.3821623311992</v>
+        <v>252.2782741702153</v>
       </c>
       <c r="F2" t="n">
-        <v>784.014623461966</v>
+        <v>244.9107353009821</v>
       </c>
       <c r="G2" t="n">
-        <v>506.9602726118625</v>
+        <v>229.9059217617589</v>
       </c>
       <c r="H2" t="n">
         <v>229.9059217617589</v>
@@ -4339,13 +4339,13 @@
         <v>345.6915471007955</v>
       </c>
       <c r="M2" t="n">
-        <v>586.1689795623909</v>
+        <v>586.1689795623907</v>
       </c>
       <c r="N2" t="n">
-        <v>815.0204133003604</v>
+        <v>815.0204133003602</v>
       </c>
       <c r="O2" t="n">
-        <v>984.9899813536998</v>
+        <v>984.9899813536997</v>
       </c>
       <c r="P2" t="n">
         <v>1093.116282134284</v>
@@ -4357,25 +4357,25 @@
         <v>953.8515700725947</v>
       </c>
       <c r="S2" t="n">
-        <v>953.8515700725947</v>
+        <v>745.907174392252</v>
       </c>
       <c r="T2" t="n">
-        <v>953.8515700725947</v>
+        <v>745.907174392252</v>
       </c>
       <c r="U2" t="n">
-        <v>953.8515700725947</v>
+        <v>529.3326250203188</v>
       </c>
       <c r="V2" t="n">
-        <v>953.8515700725947</v>
+        <v>529.3326250203188</v>
       </c>
       <c r="W2" t="n">
-        <v>953.8515700725947</v>
+        <v>529.3326250203188</v>
       </c>
       <c r="X2" t="n">
-        <v>953.8515700725947</v>
+        <v>529.3326250203188</v>
       </c>
       <c r="Y2" t="n">
-        <v>791.3821623311992</v>
+        <v>252.2782741702153</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>429.6614429383567</v>
+        <v>541.2397414455615</v>
       </c>
       <c r="C3" t="n">
-        <v>256.9083278601739</v>
+        <v>368.4866263673787</v>
       </c>
       <c r="D3" t="n">
-        <v>109.3200212191178</v>
+        <v>220.8983197263226</v>
       </c>
       <c r="E3" t="n">
-        <v>109.3200212191178</v>
+        <v>220.8983197263226</v>
       </c>
       <c r="F3" t="n">
-        <v>109.3200212191178</v>
+        <v>220.8983197263226</v>
       </c>
       <c r="G3" t="n">
-        <v>109.3200212191178</v>
+        <v>220.8983197263226</v>
       </c>
       <c r="H3" t="n">
         <v>109.3200212191178</v>
@@ -4412,22 +4412,22 @@
         <v>21.9427045873282</v>
       </c>
       <c r="K3" t="n">
-        <v>161.1846636454791</v>
+        <v>38.09606741079833</v>
       </c>
       <c r="L3" t="n">
-        <v>409.2622680873972</v>
+        <v>286.1736718527163</v>
       </c>
       <c r="M3" t="n">
-        <v>680.8032373555836</v>
+        <v>557.7146411209028</v>
       </c>
       <c r="N3" t="n">
-        <v>680.8032373555836</v>
+        <v>829.2556103890893</v>
       </c>
       <c r="O3" t="n">
-        <v>948.6828563329043</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="P3" t="n">
-        <v>1015.957061350112</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q3" t="n">
         <v>1097.13522936641</v>
@@ -4439,22 +4439,22 @@
         <v>1097.13522936641</v>
       </c>
       <c r="T3" t="n">
-        <v>1097.13522936641</v>
+        <v>896.7488334994719</v>
       </c>
       <c r="U3" t="n">
-        <v>1097.13522936641</v>
+        <v>669.8223920174504</v>
       </c>
       <c r="V3" t="n">
-        <v>1097.13522936641</v>
+        <v>669.8223920174504</v>
       </c>
       <c r="W3" t="n">
-        <v>1008.959328430689</v>
+        <v>669.8223920174504</v>
       </c>
       <c r="X3" t="n">
-        <v>802.4324298362668</v>
+        <v>669.8223920174504</v>
       </c>
       <c r="Y3" t="n">
-        <v>596.7039940599172</v>
+        <v>669.8223920174504</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="C4" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="D4" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="E4" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="F4" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="G4" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="H4" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="I4" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="J4" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="K4" t="n">
         <v>21.9427045873282</v>
@@ -4515,25 +4515,25 @@
         <v>202.6630345283467</v>
       </c>
       <c r="S4" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T4" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U4" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V4" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W4" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="X4" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="Y4" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>543.0265276662028</v>
+        <v>322.0353443454461</v>
       </c>
       <c r="C5" t="n">
-        <v>543.0265276662028</v>
+        <v>322.0353443454461</v>
       </c>
       <c r="D5" t="n">
-        <v>543.0265276662028</v>
+        <v>322.0353443454461</v>
       </c>
       <c r="E5" t="n">
-        <v>265.9721768160992</v>
+        <v>322.0353443454461</v>
       </c>
       <c r="F5" t="n">
-        <v>37.61345462610935</v>
+        <v>314.6678054762129</v>
       </c>
       <c r="G5" t="n">
-        <v>22.60864108688619</v>
+        <v>299.6629919369898</v>
       </c>
       <c r="H5" t="n">
         <v>22.60864108688619</v>
@@ -4591,28 +4591,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R5" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S5" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="T5" t="n">
-        <v>1097.13522936641</v>
+        <v>728.6342799752003</v>
       </c>
       <c r="U5" t="n">
-        <v>1097.13522936641</v>
+        <v>728.6342799752003</v>
       </c>
       <c r="V5" t="n">
-        <v>820.0808785163064</v>
+        <v>451.5799291250968</v>
       </c>
       <c r="W5" t="n">
-        <v>543.0265276662028</v>
+        <v>451.5799291250968</v>
       </c>
       <c r="X5" t="n">
-        <v>543.0265276662028</v>
+        <v>451.5799291250968</v>
       </c>
       <c r="Y5" t="n">
-        <v>543.0265276662028</v>
+        <v>451.5799291250968</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>457.2459880678657</v>
+        <v>583.6746287161177</v>
       </c>
       <c r="C6" t="n">
-        <v>457.2459880678657</v>
+        <v>583.6746287161177</v>
       </c>
       <c r="D6" t="n">
-        <v>457.2459880678657</v>
+        <v>436.0863220750615</v>
       </c>
       <c r="E6" t="n">
-        <v>457.2459880678657</v>
+        <v>278.4767930779162</v>
       </c>
       <c r="F6" t="n">
-        <v>358.2955017516178</v>
+        <v>133.521003094533</v>
       </c>
       <c r="G6" t="n">
-        <v>220.8983197263226</v>
+        <v>133.521003094533</v>
       </c>
       <c r="H6" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I6" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="J6" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K6" t="n">
-        <v>168.577974491964</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L6" t="n">
-        <v>416.655578933882</v>
+        <v>270.0203090292462</v>
       </c>
       <c r="M6" t="n">
-        <v>630.6851405540922</v>
+        <v>541.5612782974326</v>
       </c>
       <c r="N6" t="n">
-        <v>630.6851405540922</v>
+        <v>813.1022475656191</v>
       </c>
       <c r="O6" t="n">
-        <v>898.564759531413</v>
+        <v>1080.98186654294</v>
       </c>
       <c r="P6" t="n">
-        <v>1097.13522936641</v>
+        <v>1080.98186654294</v>
       </c>
       <c r="Q6" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R6" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S6" t="n">
-        <v>830.8154377838487</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T6" t="n">
-        <v>830.8154377838487</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U6" t="n">
-        <v>830.8154377838487</v>
+        <v>995.9299630868898</v>
       </c>
       <c r="V6" t="n">
-        <v>830.8154377838487</v>
+        <v>995.9299630868898</v>
       </c>
       <c r="W6" t="n">
-        <v>830.8154377838487</v>
+        <v>995.9299630868898</v>
       </c>
       <c r="X6" t="n">
-        <v>624.2885391894262</v>
+        <v>789.4030644924673</v>
       </c>
       <c r="Y6" t="n">
-        <v>624.2885391894262</v>
+        <v>583.6746287161177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="C7" t="n">
-        <v>21.9427045873282</v>
+        <v>187.3770240139471</v>
       </c>
       <c r="D7" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="E7" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="F7" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="G7" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="H7" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="I7" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="J7" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="K7" t="n">
         <v>21.9427045873282</v>
@@ -4758,19 +4758,19 @@
         <v>202.6630345283467</v>
       </c>
       <c r="U7" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V7" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W7" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="X7" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Y7" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>317.8092375688085</v>
+        <v>322.0353443454461</v>
       </c>
       <c r="C8" t="n">
-        <v>317.8092375688085</v>
+        <v>44.98099349534252</v>
       </c>
       <c r="D8" t="n">
-        <v>317.8092375688085</v>
+        <v>44.98099349534252</v>
       </c>
       <c r="E8" t="n">
-        <v>317.8092375688085</v>
+        <v>44.98099349534252</v>
       </c>
       <c r="F8" t="n">
-        <v>40.75488671870494</v>
+        <v>37.61345462610935</v>
       </c>
       <c r="G8" t="n">
         <v>22.60864108688619</v>
@@ -4828,28 +4828,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R8" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S8" t="n">
-        <v>1097.13522936641</v>
+        <v>745.907174392252</v>
       </c>
       <c r="T8" t="n">
-        <v>871.9179392690156</v>
+        <v>745.907174392252</v>
       </c>
       <c r="U8" t="n">
-        <v>871.9179392690156</v>
+        <v>745.907174392252</v>
       </c>
       <c r="V8" t="n">
-        <v>594.8635884189121</v>
+        <v>599.0896951955497</v>
       </c>
       <c r="W8" t="n">
-        <v>594.8635884189121</v>
+        <v>599.0896951955497</v>
       </c>
       <c r="X8" t="n">
-        <v>594.8635884189121</v>
+        <v>322.0353443454461</v>
       </c>
       <c r="Y8" t="n">
-        <v>594.8635884189121</v>
+        <v>322.0353443454461</v>
       </c>
     </row>
     <row r="9">
@@ -4859,43 +4859,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>358.2955017516178</v>
+        <v>893.8249258195958</v>
       </c>
       <c r="C9" t="n">
-        <v>358.2955017516178</v>
+        <v>721.0718107414129</v>
       </c>
       <c r="D9" t="n">
-        <v>358.2955017516178</v>
+        <v>573.4835041003568</v>
       </c>
       <c r="E9" t="n">
-        <v>358.2955017516178</v>
+        <v>415.8739751032115</v>
       </c>
       <c r="F9" t="n">
-        <v>358.2955017516178</v>
+        <v>270.9181851198283</v>
       </c>
       <c r="G9" t="n">
-        <v>220.8983197263226</v>
+        <v>133.521003094533</v>
       </c>
       <c r="H9" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I9" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="J9" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K9" t="n">
-        <v>168.577974491964</v>
+        <v>161.1846636454791</v>
       </c>
       <c r="L9" t="n">
-        <v>359.1441712859057</v>
+        <v>161.1846636454791</v>
       </c>
       <c r="M9" t="n">
-        <v>359.1441712859057</v>
+        <v>432.7256329136656</v>
       </c>
       <c r="N9" t="n">
-        <v>630.6851405540922</v>
+        <v>704.266602181852</v>
       </c>
       <c r="O9" t="n">
         <v>898.564759531413</v>
@@ -4907,28 +4907,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R9" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S9" t="n">
-        <v>830.8154377838487</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T9" t="n">
-        <v>630.4290419169106</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U9" t="n">
-        <v>403.5026004348891</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V9" t="n">
-        <v>358.2955017516178</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W9" t="n">
-        <v>358.2955017516178</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="X9" t="n">
-        <v>358.2955017516178</v>
+        <v>1060.867476941156</v>
       </c>
       <c r="Y9" t="n">
-        <v>358.2955017516178</v>
+        <v>1060.867476941156</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="C10" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="D10" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="E10" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="F10" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="G10" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="H10" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="I10" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="J10" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="K10" t="n">
         <v>21.9427045873282</v>
@@ -4995,19 +4995,19 @@
         <v>202.6630345283467</v>
       </c>
       <c r="U10" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V10" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W10" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="X10" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Y10" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>50.71143199091319</v>
+        <v>1168.59816349478</v>
       </c>
       <c r="C11" t="n">
-        <v>50.71143199091319</v>
+        <v>797.9061476574645</v>
       </c>
       <c r="D11" t="n">
-        <v>50.71143199091319</v>
+        <v>437.699346895244</v>
       </c>
       <c r="E11" t="n">
         <v>50.71143199091319</v>
@@ -5041,10 +5041,10 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J11" t="n">
-        <v>154.6737472370296</v>
+        <v>154.6737472370294</v>
       </c>
       <c r="K11" t="n">
-        <v>432.7629010724813</v>
+        <v>432.762901072481</v>
       </c>
       <c r="L11" t="n">
         <v>829.7261648535823</v>
@@ -5053,7 +5053,7 @@
         <v>1286.636576300462</v>
       </c>
       <c r="N11" t="n">
-        <v>1735.423100897411</v>
+        <v>1735.42310089741</v>
       </c>
       <c r="O11" t="n">
         <v>2113.071138623965</v>
@@ -5065,28 +5065,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R11" t="n">
-        <v>2471.287047559323</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="S11" t="n">
-        <v>2292.00071659582</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="T11" t="n">
-        <v>2072.288667455001</v>
+        <v>2315.859550404841</v>
       </c>
       <c r="U11" t="n">
-        <v>1818.371334220299</v>
+        <v>2315.859550404841</v>
       </c>
       <c r="V11" t="n">
-        <v>1486.519595308663</v>
+        <v>2284.868997962577</v>
       </c>
       <c r="W11" t="n">
-        <v>1132.448770055577</v>
+        <v>1930.798172709492</v>
       </c>
       <c r="X11" t="n">
-        <v>757.8410941655072</v>
+        <v>1556.190496819422</v>
       </c>
       <c r="Y11" t="n">
-        <v>367.2480923965821</v>
+        <v>1556.190496819422</v>
       </c>
     </row>
     <row r="12">
@@ -5096,16 +5096,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>832.9084402786798</v>
+        <v>979.6320219500381</v>
       </c>
       <c r="C12" t="n">
-        <v>660.1553252004969</v>
+        <v>806.8789068718552</v>
       </c>
       <c r="D12" t="n">
-        <v>514.3348102474158</v>
+        <v>659.290600230799</v>
       </c>
       <c r="E12" t="n">
-        <v>356.7252812502705</v>
+        <v>501.6810712336537</v>
       </c>
       <c r="F12" t="n">
         <v>356.7252812502705</v>
@@ -5132,13 +5132,13 @@
         <v>1266.817695663801</v>
       </c>
       <c r="N12" t="n">
-        <v>1805.095121106633</v>
+        <v>1620.913172155677</v>
       </c>
       <c r="O12" t="n">
-        <v>2229.885785662707</v>
+        <v>2045.703836711752</v>
       </c>
       <c r="P12" t="n">
-        <v>2535.571599545659</v>
+        <v>2370.209254145837</v>
       </c>
       <c r="Q12" t="n">
         <v>2535.571599545659</v>
@@ -5162,10 +5162,10 @@
         <v>1412.206325771012</v>
       </c>
       <c r="X12" t="n">
-        <v>1205.67942717659</v>
+        <v>1352.403008847948</v>
       </c>
       <c r="Y12" t="n">
-        <v>999.9509914002402</v>
+        <v>1146.674573071598</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>386.5461619573681</v>
+        <v>201.2221052379024</v>
       </c>
       <c r="C13" t="n">
-        <v>386.5461619573681</v>
+        <v>201.2221052379024</v>
       </c>
       <c r="D13" t="n">
-        <v>386.5461619573681</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="E13" t="n">
-        <v>386.5461619573681</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="F13" t="n">
-        <v>238.9107867959494</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="G13" t="n">
-        <v>238.9107867959494</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H13" t="n">
-        <v>238.9107867959494</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I13" t="n">
-        <v>100.5639307332544</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="J13" t="n">
         <v>50.71143199091319</v>
@@ -5226,25 +5226,25 @@
         <v>679.5420961591335</v>
       </c>
       <c r="S13" t="n">
-        <v>679.5420961591335</v>
+        <v>604.0830803474499</v>
       </c>
       <c r="T13" t="n">
-        <v>451.3135981710606</v>
+        <v>604.0830803474499</v>
       </c>
       <c r="U13" t="n">
-        <v>451.3135981710606</v>
+        <v>604.0830803474499</v>
       </c>
       <c r="V13" t="n">
-        <v>451.3135981710606</v>
+        <v>604.0830803474499</v>
       </c>
       <c r="W13" t="n">
-        <v>386.5461619573681</v>
+        <v>604.0830803474499</v>
       </c>
       <c r="X13" t="n">
-        <v>386.5461619573681</v>
+        <v>604.0830803474499</v>
       </c>
       <c r="Y13" t="n">
-        <v>386.5461619573681</v>
+        <v>383.1248239153608</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1633.840527901596</v>
+        <v>1320.304069059332</v>
       </c>
       <c r="C14" t="n">
-        <v>1633.840527901596</v>
+        <v>949.6120532220164</v>
       </c>
       <c r="D14" t="n">
-        <v>1595.57476077566</v>
+        <v>949.6120532220164</v>
       </c>
       <c r="E14" t="n">
-        <v>1208.586845871329</v>
+        <v>949.6120532220164</v>
       </c>
       <c r="F14" t="n">
-        <v>797.1789029616918</v>
+        <v>538.2041103123792</v>
       </c>
       <c r="G14" t="n">
-        <v>379.3913075309111</v>
+        <v>538.2041103123792</v>
       </c>
       <c r="H14" t="n">
-        <v>50.71143199091319</v>
+        <v>209.5242347723812</v>
       </c>
       <c r="I14" t="n">
         <v>50.71143199091319</v>
@@ -5284,13 +5284,13 @@
         <v>432.762901072481</v>
       </c>
       <c r="L14" t="n">
-        <v>829.7261648535823</v>
+        <v>829.7261648535821</v>
       </c>
       <c r="M14" t="n">
         <v>1286.636576300462</v>
       </c>
       <c r="N14" t="n">
-        <v>1735.42310089741</v>
+        <v>1735.423100897411</v>
       </c>
       <c r="O14" t="n">
         <v>2113.071138623965</v>
@@ -5302,28 +5302,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R14" t="n">
-        <v>2535.571599545659</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="S14" t="n">
-        <v>2356.285268582156</v>
+        <v>2292.00071659582</v>
       </c>
       <c r="T14" t="n">
-        <v>2356.285268582156</v>
+        <v>2072.288667455001</v>
       </c>
       <c r="U14" t="n">
-        <v>2356.285268582156</v>
+        <v>1818.371334220299</v>
       </c>
       <c r="V14" t="n">
-        <v>2024.433529670521</v>
+        <v>1818.371334220299</v>
       </c>
       <c r="W14" t="n">
-        <v>2024.433529670521</v>
+        <v>1464.300508967213</v>
       </c>
       <c r="X14" t="n">
-        <v>2024.433529670521</v>
+        <v>1464.300508967213</v>
       </c>
       <c r="Y14" t="n">
-        <v>1633.840527901596</v>
+        <v>1320.304069059332</v>
       </c>
     </row>
     <row r="15">
@@ -5360,22 +5360,22 @@
         <v>50.71143199091319</v>
       </c>
       <c r="K15" t="n">
-        <v>181.9669871305373</v>
+        <v>296.4476481521845</v>
       </c>
       <c r="L15" t="n">
-        <v>573.239262455199</v>
+        <v>687.7199234768461</v>
       </c>
       <c r="M15" t="n">
-        <v>1082.635746712845</v>
+        <v>1197.116407734492</v>
       </c>
       <c r="N15" t="n">
-        <v>1620.913172155677</v>
+        <v>1735.393833177324</v>
       </c>
       <c r="O15" t="n">
-        <v>2045.703836711752</v>
+        <v>2160.184497733399</v>
       </c>
       <c r="P15" t="n">
-        <v>2370.209254145837</v>
+        <v>2484.689915167484</v>
       </c>
       <c r="Q15" t="n">
         <v>2535.571599545659</v>
@@ -5387,22 +5387,22 @@
         <v>2323.528421865784</v>
       </c>
       <c r="T15" t="n">
-        <v>2272.5778151726</v>
+        <v>2125.854233501242</v>
       </c>
       <c r="U15" t="n">
-        <v>2045.695642583436</v>
+        <v>1898.972060912078</v>
       </c>
       <c r="V15" t="n">
-        <v>1811.444399109037</v>
+        <v>1664.720817437679</v>
       </c>
       <c r="W15" t="n">
-        <v>1558.92990744237</v>
+        <v>1412.206325771012</v>
       </c>
       <c r="X15" t="n">
-        <v>1352.403008847948</v>
+        <v>1205.67942717659</v>
       </c>
       <c r="Y15" t="n">
-        <v>1146.674573071598</v>
+        <v>999.9509914002402</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>397.1619332101088</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="C16" t="n">
-        <v>397.1619332101088</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="D16" t="n">
-        <v>397.1619332101088</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="E16" t="n">
-        <v>397.1619332101088</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="F16" t="n">
-        <v>397.1619332101088</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="G16" t="n">
-        <v>397.1619332101088</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H16" t="n">
-        <v>238.9107867959494</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I16" t="n">
-        <v>100.5639307332544</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="J16" t="n">
         <v>50.71143199091319</v>
@@ -5457,31 +5457,31 @@
         <v>679.5420961591335</v>
       </c>
       <c r="Q16" t="n">
-        <v>646.2135925865364</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="R16" t="n">
-        <v>496.4361755452314</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="S16" t="n">
-        <v>496.4361755452314</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="T16" t="n">
-        <v>496.4361755452314</v>
+        <v>595.1850965912715</v>
       </c>
       <c r="U16" t="n">
-        <v>496.4361755452314</v>
+        <v>595.1850965912715</v>
       </c>
       <c r="V16" t="n">
-        <v>496.4361755452314</v>
+        <v>339.6938328872925</v>
       </c>
       <c r="W16" t="n">
-        <v>496.4361755452314</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="X16" t="n">
-        <v>496.4361755452314</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="Y16" t="n">
-        <v>496.4361755452314</v>
+        <v>50.71143199091319</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1316.19850650538</v>
+        <v>421.403447828229</v>
       </c>
       <c r="C17" t="n">
-        <v>1316.19850650538</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="D17" t="n">
-        <v>955.9917057431599</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="E17" t="n">
-        <v>955.9917057431599</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="F17" t="n">
-        <v>955.9917057431599</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="G17" t="n">
-        <v>538.2041103123792</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H17" t="n">
-        <v>209.5242347723812</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I17" t="n">
         <v>50.71143199091319</v>
@@ -5521,13 +5521,13 @@
         <v>432.762901072481</v>
       </c>
       <c r="L17" t="n">
-        <v>829.7261648535822</v>
+        <v>829.7261648535823</v>
       </c>
       <c r="M17" t="n">
         <v>1286.636576300462</v>
       </c>
       <c r="N17" t="n">
-        <v>1735.423100897411</v>
+        <v>1735.42310089741</v>
       </c>
       <c r="O17" t="n">
         <v>2113.071138623965</v>
@@ -5539,28 +5539,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R17" t="n">
-        <v>2512.272629561463</v>
+        <v>2514.03635621129</v>
       </c>
       <c r="S17" t="n">
-        <v>2512.272629561463</v>
+        <v>2514.03635621129</v>
       </c>
       <c r="T17" t="n">
-        <v>2292.560580420644</v>
+        <v>2514.03635621129</v>
       </c>
       <c r="U17" t="n">
-        <v>2038.643247185941</v>
+        <v>2260.119022976587</v>
       </c>
       <c r="V17" t="n">
-        <v>1706.791508274306</v>
+        <v>1928.267284064951</v>
       </c>
       <c r="W17" t="n">
-        <v>1706.791508274306</v>
+        <v>1574.196458811866</v>
       </c>
       <c r="X17" t="n">
-        <v>1706.791508274306</v>
+        <v>1199.588782921795</v>
       </c>
       <c r="Y17" t="n">
-        <v>1316.19850650538</v>
+        <v>808.9957811528704</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>915.4220925802833</v>
+        <v>832.9084402786798</v>
       </c>
       <c r="C18" t="n">
-        <v>742.6689775021005</v>
+        <v>660.1553252004969</v>
       </c>
       <c r="D18" t="n">
-        <v>595.0806708610443</v>
+        <v>512.5670185594408</v>
       </c>
       <c r="E18" t="n">
-        <v>437.471141863899</v>
+        <v>354.9574895622956</v>
       </c>
       <c r="F18" t="n">
-        <v>292.5153518805158</v>
+        <v>220.0009863964076</v>
       </c>
       <c r="G18" t="n">
-        <v>155.7910570266529</v>
+        <v>220.0009863964076</v>
       </c>
       <c r="H18" t="n">
-        <v>50.71143199091319</v>
+        <v>114.9213613606679</v>
       </c>
       <c r="I18" t="n">
         <v>50.71143199091319</v>
@@ -5597,22 +5597,22 @@
         <v>120.4127199202217</v>
       </c>
       <c r="K18" t="n">
-        <v>181.9669871305373</v>
+        <v>366.1489360814929</v>
       </c>
       <c r="L18" t="n">
-        <v>573.239262455199</v>
+        <v>757.4212114061545</v>
       </c>
       <c r="M18" t="n">
-        <v>1082.635746712845</v>
+        <v>1266.817695663801</v>
       </c>
       <c r="N18" t="n">
-        <v>1620.913172155677</v>
+        <v>1805.095121106633</v>
       </c>
       <c r="O18" t="n">
-        <v>2045.703836711752</v>
+        <v>2229.885785662707</v>
       </c>
       <c r="P18" t="n">
-        <v>2370.209254145837</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="Q18" t="n">
         <v>2535.571599545659</v>
@@ -5621,25 +5621,25 @@
         <v>2481.698134656769</v>
       </c>
       <c r="S18" t="n">
-        <v>2406.042074167387</v>
+        <v>2323.528421865784</v>
       </c>
       <c r="T18" t="n">
-        <v>2208.367885802846</v>
+        <v>2125.854233501242</v>
       </c>
       <c r="U18" t="n">
-        <v>1981.485713213681</v>
+        <v>1898.972060912078</v>
       </c>
       <c r="V18" t="n">
-        <v>1747.234469739282</v>
+        <v>1664.720817437679</v>
       </c>
       <c r="W18" t="n">
-        <v>1494.719978072616</v>
+        <v>1412.206325771012</v>
       </c>
       <c r="X18" t="n">
-        <v>1288.193079478193</v>
+        <v>1205.67942717659</v>
       </c>
       <c r="Y18" t="n">
-        <v>1082.464643701844</v>
+        <v>999.9509914002402</v>
       </c>
     </row>
     <row r="19">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>377.9838957680342</v>
+        <v>101.6487785081866</v>
       </c>
       <c r="C19" t="n">
-        <v>377.9838957680342</v>
+        <v>101.6487785081866</v>
       </c>
       <c r="D19" t="n">
-        <v>377.9838957680342</v>
+        <v>101.6487785081866</v>
       </c>
       <c r="E19" t="n">
-        <v>377.9838957680342</v>
+        <v>101.6487785081866</v>
       </c>
       <c r="F19" t="n">
-        <v>377.9838957680342</v>
+        <v>101.6487785081866</v>
       </c>
       <c r="G19" t="n">
-        <v>208.9625784050725</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H19" t="n">
         <v>50.71143199091319</v>
@@ -5703,22 +5703,22 @@
         <v>679.5420961591335</v>
       </c>
       <c r="T19" t="n">
-        <v>666.9662966644136</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="U19" t="n">
-        <v>666.9662966644136</v>
+        <v>390.6311794045659</v>
       </c>
       <c r="V19" t="n">
-        <v>666.9662966644136</v>
+        <v>390.6311794045659</v>
       </c>
       <c r="W19" t="n">
-        <v>377.9838957680342</v>
+        <v>101.6487785081866</v>
       </c>
       <c r="X19" t="n">
-        <v>377.9838957680342</v>
+        <v>101.6487785081866</v>
       </c>
       <c r="Y19" t="n">
-        <v>377.9838957680342</v>
+        <v>101.6487785081866</v>
       </c>
     </row>
     <row r="20">
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1860.981996649579</v>
+        <v>1537.9939661071</v>
       </c>
       <c r="C20" t="n">
-        <v>1860.981996649579</v>
+        <v>1537.9939661071</v>
       </c>
       <c r="D20" t="n">
-        <v>1754.387563557128</v>
+        <v>1177.787165344879</v>
       </c>
       <c r="E20" t="n">
-        <v>1367.399648652797</v>
+        <v>790.7992504405483</v>
       </c>
       <c r="F20" t="n">
-        <v>955.9917057431599</v>
+        <v>379.3913075309111</v>
       </c>
       <c r="G20" t="n">
-        <v>538.2041103123792</v>
+        <v>379.3913075309111</v>
       </c>
       <c r="H20" t="n">
-        <v>209.5242347723812</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I20" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J20" t="n">
-        <v>154.6737472370294</v>
+        <v>154.6737472370296</v>
       </c>
       <c r="K20" t="n">
-        <v>432.7629010724811</v>
+        <v>432.7629010724813</v>
       </c>
       <c r="L20" t="n">
-        <v>829.7261648535818</v>
+        <v>829.7261648535823</v>
       </c>
       <c r="M20" t="n">
-        <v>1286.636576300461</v>
+        <v>1286.636576300462</v>
       </c>
       <c r="N20" t="n">
-        <v>1735.42310089741</v>
+        <v>1735.423100897411</v>
       </c>
       <c r="O20" t="n">
         <v>2113.071138623965</v>
@@ -5776,28 +5776,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R20" t="n">
-        <v>2471.287047559323</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="S20" t="n">
-        <v>2471.287047559323</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="T20" t="n">
-        <v>2251.574998418504</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="U20" t="n">
-        <v>2251.574998418504</v>
+        <v>2300.193975321811</v>
       </c>
       <c r="V20" t="n">
-        <v>2251.574998418504</v>
+        <v>2300.193975321811</v>
       </c>
       <c r="W20" t="n">
-        <v>2251.574998418504</v>
+        <v>2300.193975321811</v>
       </c>
       <c r="X20" t="n">
-        <v>2251.574998418504</v>
+        <v>1925.586299431741</v>
       </c>
       <c r="Y20" t="n">
-        <v>1860.981996649579</v>
+        <v>1925.586299431741</v>
       </c>
     </row>
     <row r="21">
@@ -5807,49 +5807,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>979.6320219500381</v>
+        <v>832.9084402786798</v>
       </c>
       <c r="C21" t="n">
-        <v>806.8789068718552</v>
+        <v>660.1553252004969</v>
       </c>
       <c r="D21" t="n">
-        <v>659.290600230799</v>
+        <v>512.5670185594408</v>
       </c>
       <c r="E21" t="n">
-        <v>501.6810712336537</v>
+        <v>354.9574895622956</v>
       </c>
       <c r="F21" t="n">
-        <v>356.7252812502705</v>
+        <v>210.0016995789124</v>
       </c>
       <c r="G21" t="n">
-        <v>220.0009863964076</v>
+        <v>73.27740472504951</v>
       </c>
       <c r="H21" t="n">
-        <v>114.9213613606678</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I21" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J21" t="n">
-        <v>120.4127199202217</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="K21" t="n">
-        <v>366.1489360814929</v>
+        <v>296.4476481521845</v>
       </c>
       <c r="L21" t="n">
-        <v>757.4212114061546</v>
+        <v>687.7199234768461</v>
       </c>
       <c r="M21" t="n">
-        <v>1247.998092112667</v>
+        <v>1197.116407734492</v>
       </c>
       <c r="N21" t="n">
-        <v>1786.275517555499</v>
+        <v>1735.393833177324</v>
       </c>
       <c r="O21" t="n">
-        <v>2211.066182111574</v>
+        <v>2160.184497733399</v>
       </c>
       <c r="P21" t="n">
-        <v>2535.571599545659</v>
+        <v>2370.209254145837</v>
       </c>
       <c r="Q21" t="n">
         <v>2535.571599545659</v>
@@ -5870,13 +5870,13 @@
         <v>1664.720817437679</v>
       </c>
       <c r="W21" t="n">
-        <v>1558.92990744237</v>
+        <v>1412.206325771012</v>
       </c>
       <c r="X21" t="n">
-        <v>1352.403008847948</v>
+        <v>1205.67942717659</v>
       </c>
       <c r="Y21" t="n">
-        <v>1146.674573071598</v>
+        <v>999.9509914002402</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1942.793420809312</v>
+        <v>424.0508324551545</v>
       </c>
       <c r="C22" t="n">
-        <v>1942.793420809312</v>
+        <v>255.0240113125259</v>
       </c>
       <c r="D22" t="n">
-        <v>1942.793420809312</v>
+        <v>255.0240113125259</v>
       </c>
       <c r="E22" t="n">
-        <v>1942.793420809312</v>
+        <v>106.5647949759611</v>
       </c>
       <c r="F22" t="n">
-        <v>1942.793420809312</v>
+        <v>106.5647949759611</v>
       </c>
       <c r="G22" t="n">
-        <v>1942.793420809312</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H22" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I22" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="J22" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="K22" t="n">
-        <v>1956.351184640836</v>
+        <v>100.3216812543103</v>
       </c>
       <c r="L22" t="n">
-        <v>2075.638838623408</v>
+        <v>219.6093352368815</v>
       </c>
       <c r="M22" t="n">
-        <v>2212.003844007148</v>
+        <v>355.9743406206215</v>
       </c>
       <c r="N22" t="n">
-        <v>2350.267656248476</v>
+        <v>494.2381528619504</v>
       </c>
       <c r="O22" t="n">
-        <v>2462.640068944411</v>
+        <v>606.6105655578849</v>
       </c>
       <c r="P22" t="n">
-        <v>2535.571599545659</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="Q22" t="n">
-        <v>2535.571599545659</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="R22" t="n">
-        <v>2385.794182504354</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="S22" t="n">
-        <v>2171.021918797385</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="T22" t="n">
-        <v>1942.793420809312</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="U22" t="n">
-        <v>1942.793420809312</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="V22" t="n">
-        <v>1942.793420809312</v>
+        <v>424.0508324551545</v>
       </c>
       <c r="W22" t="n">
-        <v>1942.793420809312</v>
+        <v>424.0508324551545</v>
       </c>
       <c r="X22" t="n">
-        <v>1942.793420809312</v>
+        <v>424.0508324551545</v>
       </c>
       <c r="Y22" t="n">
-        <v>1942.793420809312</v>
+        <v>424.0508324551545</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1176.196471404929</v>
+        <v>1151.006051202769</v>
       </c>
       <c r="C23" t="n">
-        <v>1176.196471404929</v>
+        <v>1151.006051202769</v>
       </c>
       <c r="D23" t="n">
-        <v>1176.196471404929</v>
+        <v>790.7992504405483</v>
       </c>
       <c r="E23" t="n">
-        <v>1176.196471404929</v>
+        <v>790.7992504405483</v>
       </c>
       <c r="F23" t="n">
-        <v>955.9917057431599</v>
+        <v>379.3913075309111</v>
       </c>
       <c r="G23" t="n">
-        <v>538.2041103123792</v>
+        <v>379.3913075309111</v>
       </c>
       <c r="H23" t="n">
-        <v>209.5242347723812</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I23" t="n">
         <v>50.71143199091319</v>
@@ -6016,25 +6016,25 @@
         <v>2535.571599545659</v>
       </c>
       <c r="S23" t="n">
-        <v>2356.285268582156</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="T23" t="n">
-        <v>2136.573219441338</v>
+        <v>2315.859550404841</v>
       </c>
       <c r="U23" t="n">
-        <v>1882.655886206635</v>
+        <v>2224.520948692131</v>
       </c>
       <c r="V23" t="n">
-        <v>1550.804147294999</v>
+        <v>1892.669209780496</v>
       </c>
       <c r="W23" t="n">
-        <v>1550.804147294999</v>
+        <v>1538.59838452741</v>
       </c>
       <c r="X23" t="n">
-        <v>1176.196471404929</v>
+        <v>1538.59838452741</v>
       </c>
       <c r="Y23" t="n">
-        <v>1176.196471404929</v>
+        <v>1538.59838452741</v>
       </c>
     </row>
     <row r="24">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>832.9084402786798</v>
+        <v>979.6320219500381</v>
       </c>
       <c r="C24" t="n">
-        <v>660.1553252004969</v>
+        <v>806.8789068718552</v>
       </c>
       <c r="D24" t="n">
-        <v>512.5670185594408</v>
+        <v>659.290600230799</v>
       </c>
       <c r="E24" t="n">
-        <v>354.9574895622956</v>
+        <v>501.6810712336537</v>
       </c>
       <c r="F24" t="n">
-        <v>354.9574895622956</v>
+        <v>356.7252812502705</v>
       </c>
       <c r="G24" t="n">
-        <v>218.2331947084326</v>
+        <v>220.0009863964076</v>
       </c>
       <c r="H24" t="n">
         <v>114.9213613606679</v>
@@ -6068,25 +6068,25 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J24" t="n">
-        <v>120.4127199202217</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="K24" t="n">
-        <v>366.1489360814929</v>
+        <v>296.4476481521845</v>
       </c>
       <c r="L24" t="n">
-        <v>757.4212114061545</v>
+        <v>687.7199234768461</v>
       </c>
       <c r="M24" t="n">
-        <v>1266.817695663801</v>
+        <v>1197.116407734492</v>
       </c>
       <c r="N24" t="n">
-        <v>1805.095121106633</v>
+        <v>1735.393833177324</v>
       </c>
       <c r="O24" t="n">
-        <v>2229.885785662707</v>
+        <v>2160.184497733399</v>
       </c>
       <c r="P24" t="n">
-        <v>2535.571599545659</v>
+        <v>2484.689915167484</v>
       </c>
       <c r="Q24" t="n">
         <v>2535.571599545659</v>
@@ -6113,7 +6113,7 @@
         <v>1205.67942717659</v>
       </c>
       <c r="Y24" t="n">
-        <v>999.9509914002402</v>
+        <v>1146.674573071598</v>
       </c>
     </row>
     <row r="25">
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>50.71143199091319</v>
+        <v>195.8223344670816</v>
       </c>
       <c r="C25" t="n">
-        <v>50.71143199091319</v>
+        <v>195.8223344670816</v>
       </c>
       <c r="D25" t="n">
-        <v>50.71143199091319</v>
+        <v>195.8223344670816</v>
       </c>
       <c r="E25" t="n">
-        <v>50.71143199091319</v>
+        <v>195.8223344670816</v>
       </c>
       <c r="F25" t="n">
-        <v>50.71143199091319</v>
+        <v>195.8223344670816</v>
       </c>
       <c r="G25" t="n">
         <v>50.71143199091319</v>
@@ -6183,16 +6183,16 @@
         <v>451.3135981710606</v>
       </c>
       <c r="V25" t="n">
-        <v>451.3135981710606</v>
+        <v>195.8223344670816</v>
       </c>
       <c r="W25" t="n">
-        <v>162.3311972746812</v>
+        <v>195.8223344670816</v>
       </c>
       <c r="X25" t="n">
-        <v>162.3311972746812</v>
+        <v>195.8223344670816</v>
       </c>
       <c r="Y25" t="n">
-        <v>162.3311972746812</v>
+        <v>195.8223344670816</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1336.599968126347</v>
+        <v>1293.419556339107</v>
       </c>
       <c r="C26" t="n">
-        <v>1336.599968126347</v>
+        <v>1293.419556339107</v>
       </c>
       <c r="D26" t="n">
-        <v>1336.599968126347</v>
+        <v>933.2127555768861</v>
       </c>
       <c r="E26" t="n">
-        <v>949.6120532220164</v>
+        <v>546.2248406725553</v>
       </c>
       <c r="F26" t="n">
-        <v>538.2041103123792</v>
+        <v>134.816897762918</v>
       </c>
       <c r="G26" t="n">
-        <v>538.2041103123792</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H26" t="n">
-        <v>209.5242347723812</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I26" t="n">
         <v>50.71143199091319</v>
@@ -6229,10 +6229,10 @@
         <v>154.6737472370294</v>
       </c>
       <c r="K26" t="n">
-        <v>432.7629010724813</v>
+        <v>432.762901072481</v>
       </c>
       <c r="L26" t="n">
-        <v>829.7261648535825</v>
+        <v>829.7261648535823</v>
       </c>
       <c r="M26" t="n">
         <v>1286.636576300462</v>
@@ -6256,22 +6256,22 @@
         <v>2292.00071659582</v>
       </c>
       <c r="T26" t="n">
-        <v>2276.439865525771</v>
+        <v>2292.00071659582</v>
       </c>
       <c r="U26" t="n">
-        <v>2022.522532291069</v>
+        <v>2038.083383361117</v>
       </c>
       <c r="V26" t="n">
-        <v>1690.670793379433</v>
+        <v>2038.083383361117</v>
       </c>
       <c r="W26" t="n">
-        <v>1336.599968126347</v>
+        <v>1684.012558108032</v>
       </c>
       <c r="X26" t="n">
-        <v>1336.599968126347</v>
+        <v>1684.012558108032</v>
       </c>
       <c r="Y26" t="n">
-        <v>1336.599968126347</v>
+        <v>1293.419556339107</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>886.7819051675707</v>
+        <v>832.9084402786798</v>
       </c>
       <c r="C27" t="n">
-        <v>714.0287900893879</v>
+        <v>660.1553252004969</v>
       </c>
       <c r="D27" t="n">
-        <v>566.4404834483319</v>
+        <v>512.5670185594408</v>
       </c>
       <c r="E27" t="n">
-        <v>408.8309544511866</v>
+        <v>354.9574895622956</v>
       </c>
       <c r="F27" t="n">
-        <v>263.8751644678034</v>
+        <v>210.0016995789124</v>
       </c>
       <c r="G27" t="n">
-        <v>127.1508696139405</v>
+        <v>155.7910570266529</v>
       </c>
       <c r="H27" t="n">
         <v>50.71143199091319</v>
@@ -6308,13 +6308,13 @@
         <v>120.4127199202217</v>
       </c>
       <c r="K27" t="n">
-        <v>181.9669871305373</v>
+        <v>366.1489360814929</v>
       </c>
       <c r="L27" t="n">
-        <v>573.239262455199</v>
+        <v>757.4212114061545</v>
       </c>
       <c r="M27" t="n">
-        <v>1082.635746712845</v>
+        <v>1266.817695663801</v>
       </c>
       <c r="N27" t="n">
         <v>1620.913172155677</v>
@@ -6329,28 +6329,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R27" t="n">
-        <v>2535.571599545659</v>
+        <v>2481.698134656769</v>
       </c>
       <c r="S27" t="n">
-        <v>2377.401886754675</v>
+        <v>2323.528421865784</v>
       </c>
       <c r="T27" t="n">
-        <v>2179.727698390133</v>
+        <v>2125.854233501242</v>
       </c>
       <c r="U27" t="n">
-        <v>1952.845525800969</v>
+        <v>1898.972060912078</v>
       </c>
       <c r="V27" t="n">
-        <v>1718.59428232657</v>
+        <v>1664.720817437679</v>
       </c>
       <c r="W27" t="n">
-        <v>1466.079790659903</v>
+        <v>1412.206325771012</v>
       </c>
       <c r="X27" t="n">
-        <v>1259.552892065481</v>
+        <v>1205.67942717659</v>
       </c>
       <c r="Y27" t="n">
-        <v>1053.824456289131</v>
+        <v>999.9509914002402</v>
       </c>
     </row>
     <row r="28">
@@ -6360,7 +6360,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>219.7382531335418</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="C28" t="n">
         <v>50.71143199091319</v>
@@ -6414,22 +6414,22 @@
         <v>679.5420961591335</v>
       </c>
       <c r="T28" t="n">
-        <v>622.5992282430893</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="U28" t="n">
-        <v>622.5992282430893</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="V28" t="n">
-        <v>622.5992282430893</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="W28" t="n">
-        <v>622.5992282430893</v>
+        <v>390.5596952627542</v>
       </c>
       <c r="X28" t="n">
-        <v>622.5992282430893</v>
+        <v>162.1350892705226</v>
       </c>
       <c r="Y28" t="n">
-        <v>401.6409718110002</v>
+        <v>162.1350892705226</v>
       </c>
     </row>
     <row r="29">
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1219.799305642197</v>
+        <v>986.6422976640511</v>
       </c>
       <c r="C29" t="n">
-        <v>849.1072898048812</v>
+        <v>615.9502818267352</v>
       </c>
       <c r="D29" t="n">
-        <v>849.1072898048812</v>
+        <v>462.1193749005504</v>
       </c>
       <c r="E29" t="n">
         <v>462.1193749005504</v>
@@ -6493,22 +6493,22 @@
         <v>2471.287047559323</v>
       </c>
       <c r="T29" t="n">
-        <v>2372.592316625834</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="U29" t="n">
-        <v>2372.592316625834</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="V29" t="n">
-        <v>2372.592316625834</v>
+        <v>2139.435308647688</v>
       </c>
       <c r="W29" t="n">
-        <v>2372.592316625834</v>
+        <v>2139.435308647688</v>
       </c>
       <c r="X29" t="n">
-        <v>1997.984640735764</v>
+        <v>1764.827632757617</v>
       </c>
       <c r="Y29" t="n">
-        <v>1607.391638966838</v>
+        <v>1374.234630988693</v>
       </c>
     </row>
     <row r="30">
@@ -6542,16 +6542,16 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J30" t="n">
-        <v>50.71143199091319</v>
+        <v>120.4127199202217</v>
       </c>
       <c r="K30" t="n">
-        <v>296.4476481521845</v>
+        <v>366.1489360814929</v>
       </c>
       <c r="L30" t="n">
-        <v>687.7199234768461</v>
+        <v>757.4212114061545</v>
       </c>
       <c r="M30" t="n">
-        <v>1197.116407734492</v>
+        <v>1266.817695663801</v>
       </c>
       <c r="N30" t="n">
         <v>1620.913172155677</v>
@@ -6584,10 +6584,10 @@
         <v>1412.206325771012</v>
       </c>
       <c r="X30" t="n">
-        <v>1352.403008847948</v>
+        <v>1205.67942717659</v>
       </c>
       <c r="Y30" t="n">
-        <v>1146.674573071598</v>
+        <v>999.9509914002402</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2372.360255217255</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="C31" t="n">
-        <v>2372.360255217255</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="D31" t="n">
-        <v>2372.360255217255</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="E31" t="n">
-        <v>2372.360255217255</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="F31" t="n">
-        <v>2372.360255217255</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="G31" t="n">
-        <v>2203.338937854293</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H31" t="n">
-        <v>2045.087791440134</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I31" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="J31" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="K31" t="n">
-        <v>1956.351184640836</v>
+        <v>100.3216812543103</v>
       </c>
       <c r="L31" t="n">
-        <v>2075.638838623408</v>
+        <v>219.6093352368815</v>
       </c>
       <c r="M31" t="n">
-        <v>2212.003844007148</v>
+        <v>355.9743406206215</v>
       </c>
       <c r="N31" t="n">
-        <v>2350.267656248476</v>
+        <v>494.2381528619504</v>
       </c>
       <c r="O31" t="n">
-        <v>2462.640068944411</v>
+        <v>606.6105655578849</v>
       </c>
       <c r="P31" t="n">
-        <v>2535.571599545659</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="Q31" t="n">
-        <v>2535.571599545659</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="R31" t="n">
-        <v>2385.794182504354</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="S31" t="n">
-        <v>2372.360255217255</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="T31" t="n">
-        <v>2372.360255217255</v>
+        <v>628.6047496418601</v>
       </c>
       <c r="U31" t="n">
-        <v>2372.360255217255</v>
+        <v>339.6938328872925</v>
       </c>
       <c r="V31" t="n">
-        <v>2372.360255217255</v>
+        <v>339.6938328872925</v>
       </c>
       <c r="W31" t="n">
-        <v>2372.360255217255</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="X31" t="n">
-        <v>2372.360255217255</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="Y31" t="n">
-        <v>2372.360255217255</v>
+        <v>50.71143199091319</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1132.448770055577</v>
+        <v>1196.733322041914</v>
       </c>
       <c r="C32" t="n">
-        <v>1132.448770055577</v>
+        <v>1196.733322041914</v>
       </c>
       <c r="D32" t="n">
-        <v>772.2419692933568</v>
+        <v>836.526521279693</v>
       </c>
       <c r="E32" t="n">
-        <v>538.2041103123792</v>
+        <v>836.526521279693</v>
       </c>
       <c r="F32" t="n">
-        <v>538.2041103123792</v>
+        <v>836.526521279693</v>
       </c>
       <c r="G32" t="n">
-        <v>538.2041103123792</v>
+        <v>418.7389258489123</v>
       </c>
       <c r="H32" t="n">
-        <v>209.5242347723812</v>
+        <v>90.05905030891444</v>
       </c>
       <c r="I32" t="n">
         <v>50.71143199091319</v>
@@ -6724,28 +6724,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R32" t="n">
-        <v>2471.287047559323</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="S32" t="n">
-        <v>2292.00071659582</v>
+        <v>2356.285268582156</v>
       </c>
       <c r="T32" t="n">
-        <v>2072.288667455001</v>
+        <v>2136.573219441338</v>
       </c>
       <c r="U32" t="n">
-        <v>1818.371334220299</v>
+        <v>1882.655886206635</v>
       </c>
       <c r="V32" t="n">
-        <v>1486.519595308663</v>
+        <v>1550.804147294999</v>
       </c>
       <c r="W32" t="n">
-        <v>1132.448770055577</v>
+        <v>1196.733322041914</v>
       </c>
       <c r="X32" t="n">
-        <v>1132.448770055577</v>
+        <v>1196.733322041914</v>
       </c>
       <c r="Y32" t="n">
-        <v>1132.448770055577</v>
+        <v>1196.733322041914</v>
       </c>
     </row>
     <row r="33">
@@ -6755,31 +6755,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>979.6320219500381</v>
+        <v>832.9084402786798</v>
       </c>
       <c r="C33" t="n">
-        <v>806.8789068718552</v>
+        <v>660.1553252004969</v>
       </c>
       <c r="D33" t="n">
-        <v>659.290600230799</v>
+        <v>512.5670185594408</v>
       </c>
       <c r="E33" t="n">
-        <v>501.6810712336537</v>
+        <v>354.9574895622956</v>
       </c>
       <c r="F33" t="n">
-        <v>356.7252812502705</v>
+        <v>210.0016995789124</v>
       </c>
       <c r="G33" t="n">
-        <v>220.0009863964076</v>
+        <v>73.27740472504951</v>
       </c>
       <c r="H33" t="n">
-        <v>114.9213613606679</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I33" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J33" t="n">
-        <v>120.4127199202217</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="K33" t="n">
         <v>181.9669871305373</v>
@@ -6806,25 +6806,25 @@
         <v>2481.698134656769</v>
       </c>
       <c r="S33" t="n">
-        <v>2470.252003537142</v>
+        <v>2323.528421865784</v>
       </c>
       <c r="T33" t="n">
-        <v>2272.5778151726</v>
+        <v>2125.854233501242</v>
       </c>
       <c r="U33" t="n">
-        <v>2045.695642583436</v>
+        <v>1898.972060912078</v>
       </c>
       <c r="V33" t="n">
-        <v>1811.444399109037</v>
+        <v>1664.720817437679</v>
       </c>
       <c r="W33" t="n">
-        <v>1558.92990744237</v>
+        <v>1412.206325771012</v>
       </c>
       <c r="X33" t="n">
-        <v>1352.403008847948</v>
+        <v>1205.67942717659</v>
       </c>
       <c r="Y33" t="n">
-        <v>1146.674573071598</v>
+        <v>999.9509914002402</v>
       </c>
     </row>
     <row r="34">
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>50.71143199091319</v>
+        <v>390.6311794045659</v>
       </c>
       <c r="C34" t="n">
-        <v>50.71143199091319</v>
+        <v>390.6311794045659</v>
       </c>
       <c r="D34" t="n">
-        <v>50.71143199091319</v>
+        <v>240.1205061575766</v>
       </c>
       <c r="E34" t="n">
-        <v>50.71143199091319</v>
+        <v>198.3468071523319</v>
       </c>
       <c r="F34" t="n">
         <v>50.71143199091319</v>
@@ -6888,22 +6888,22 @@
         <v>679.5420961591335</v>
       </c>
       <c r="T34" t="n">
-        <v>595.1136124494598</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="U34" t="n">
-        <v>306.2026956948922</v>
+        <v>390.6311794045659</v>
       </c>
       <c r="V34" t="n">
-        <v>50.71143199091319</v>
+        <v>390.6311794045659</v>
       </c>
       <c r="W34" t="n">
-        <v>50.71143199091319</v>
+        <v>390.6311794045659</v>
       </c>
       <c r="X34" t="n">
-        <v>50.71143199091319</v>
+        <v>390.6311794045659</v>
       </c>
       <c r="Y34" t="n">
-        <v>50.71143199091319</v>
+        <v>390.6311794045659</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>822.326175662771</v>
+        <v>1318.494036575687</v>
       </c>
       <c r="C35" t="n">
-        <v>822.326175662771</v>
+        <v>1318.494036575687</v>
       </c>
       <c r="D35" t="n">
-        <v>462.1193749005504</v>
+        <v>1318.494036575687</v>
       </c>
       <c r="E35" t="n">
-        <v>462.1193749005504</v>
+        <v>931.5061216713557</v>
       </c>
       <c r="F35" t="n">
-        <v>50.71143199091319</v>
+        <v>520.0981787617184</v>
       </c>
       <c r="G35" t="n">
-        <v>50.71143199091319</v>
+        <v>102.3105833309377</v>
       </c>
       <c r="H35" t="n">
-        <v>50.71143199091319</v>
+        <v>102.3105833309377</v>
       </c>
       <c r="I35" t="n">
         <v>50.71143199091319</v>
@@ -6940,10 +6940,10 @@
         <v>154.6737472370294</v>
       </c>
       <c r="K35" t="n">
-        <v>432.762901072481</v>
+        <v>432.7629010724813</v>
       </c>
       <c r="L35" t="n">
-        <v>829.7261648535822</v>
+        <v>829.7261648535825</v>
       </c>
       <c r="M35" t="n">
         <v>1286.636576300462</v>
@@ -6961,28 +6961,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R35" t="n">
-        <v>2535.571599545659</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="S35" t="n">
-        <v>2356.285268582156</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="T35" t="n">
-        <v>2356.285268582156</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="U35" t="n">
-        <v>2102.367935347454</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="V35" t="n">
-        <v>1770.516196435818</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="W35" t="n">
-        <v>1584.526184877483</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="X35" t="n">
-        <v>1209.918508987412</v>
+        <v>2096.679371669253</v>
       </c>
       <c r="Y35" t="n">
-        <v>1209.918508987412</v>
+        <v>1706.086369900328</v>
       </c>
     </row>
     <row r="36">
@@ -7016,25 +7016,25 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J36" t="n">
-        <v>101.5931163690881</v>
+        <v>120.4127199202217</v>
       </c>
       <c r="K36" t="n">
-        <v>347.3293325303594</v>
+        <v>366.1489360814929</v>
       </c>
       <c r="L36" t="n">
-        <v>738.601607855021</v>
+        <v>757.4212114061545</v>
       </c>
       <c r="M36" t="n">
-        <v>1247.998092112667</v>
+        <v>1082.635746712845</v>
       </c>
       <c r="N36" t="n">
-        <v>1786.275517555499</v>
+        <v>1620.913172155677</v>
       </c>
       <c r="O36" t="n">
-        <v>2211.066182111574</v>
+        <v>2045.703836711752</v>
       </c>
       <c r="P36" t="n">
-        <v>2535.571599545659</v>
+        <v>2370.209254145837</v>
       </c>
       <c r="Q36" t="n">
         <v>2535.571599545659</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2075.767756520068</v>
+        <v>451.3135981710606</v>
       </c>
       <c r="C37" t="n">
-        <v>1906.740935377439</v>
+        <v>451.3135981710606</v>
       </c>
       <c r="D37" t="n">
-        <v>1906.740935377439</v>
+        <v>451.3135981710606</v>
       </c>
       <c r="E37" t="n">
-        <v>1906.740935377439</v>
+        <v>451.3135981710606</v>
       </c>
       <c r="F37" t="n">
-        <v>1906.740935377439</v>
+        <v>377.9838957680342</v>
       </c>
       <c r="G37" t="n">
-        <v>1906.740935377439</v>
+        <v>208.9625784050725</v>
       </c>
       <c r="H37" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I37" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="J37" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="K37" t="n">
-        <v>1956.351184640836</v>
+        <v>100.3216812543103</v>
       </c>
       <c r="L37" t="n">
-        <v>2075.638838623408</v>
+        <v>219.6093352368815</v>
       </c>
       <c r="M37" t="n">
-        <v>2212.003844007148</v>
+        <v>355.9743406206215</v>
       </c>
       <c r="N37" t="n">
-        <v>2350.267656248476</v>
+        <v>494.2381528619504</v>
       </c>
       <c r="O37" t="n">
-        <v>2462.640068944411</v>
+        <v>606.6105655578849</v>
       </c>
       <c r="P37" t="n">
-        <v>2535.571599545659</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="Q37" t="n">
-        <v>2535.571599545659</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="R37" t="n">
-        <v>2535.571599545659</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="S37" t="n">
-        <v>2535.571599545659</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="T37" t="n">
-        <v>2535.571599545659</v>
+        <v>451.3135981710606</v>
       </c>
       <c r="U37" t="n">
-        <v>2535.571599545659</v>
+        <v>451.3135981710606</v>
       </c>
       <c r="V37" t="n">
-        <v>2535.571599545659</v>
+        <v>451.3135981710606</v>
       </c>
       <c r="W37" t="n">
-        <v>2535.571599545659</v>
+        <v>451.3135981710606</v>
       </c>
       <c r="X37" t="n">
-        <v>2478.628731629615</v>
+        <v>451.3135981710606</v>
       </c>
       <c r="Y37" t="n">
-        <v>2257.670475197526</v>
+        <v>451.3135981710606</v>
       </c>
     </row>
     <row r="38">
@@ -7150,31 +7150,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>569.7310355346019</v>
+        <v>1266.894885235662</v>
       </c>
       <c r="C38" t="n">
-        <v>569.7310355346019</v>
+        <v>1266.894885235662</v>
       </c>
       <c r="D38" t="n">
-        <v>209.5242347723812</v>
+        <v>1266.894885235662</v>
       </c>
       <c r="E38" t="n">
-        <v>209.5242347723812</v>
+        <v>879.9069703313312</v>
       </c>
       <c r="F38" t="n">
-        <v>209.5242347723812</v>
+        <v>468.4990274216939</v>
       </c>
       <c r="G38" t="n">
-        <v>209.5242347723812</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H38" t="n">
-        <v>209.5242347723812</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I38" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J38" t="n">
-        <v>154.6737472370294</v>
+        <v>154.6737472370293</v>
       </c>
       <c r="K38" t="n">
         <v>432.762901072481</v>
@@ -7198,28 +7198,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R38" t="n">
-        <v>2471.287047559323</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="S38" t="n">
-        <v>2292.00071659582</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="T38" t="n">
-        <v>2072.288667455001</v>
+        <v>2419.687896219299</v>
       </c>
       <c r="U38" t="n">
-        <v>1818.371334220299</v>
+        <v>2419.687896219299</v>
       </c>
       <c r="V38" t="n">
-        <v>1486.519595308663</v>
+        <v>2419.687896219299</v>
       </c>
       <c r="W38" t="n">
-        <v>1486.519595308663</v>
+        <v>2419.687896219299</v>
       </c>
       <c r="X38" t="n">
-        <v>1111.911919418593</v>
+        <v>2045.080220329229</v>
       </c>
       <c r="Y38" t="n">
-        <v>957.3233688592434</v>
+        <v>1654.487218560304</v>
       </c>
     </row>
     <row r="39">
@@ -7244,34 +7244,34 @@
         <v>210.0016995789124</v>
       </c>
       <c r="G39" t="n">
-        <v>210.0016995789124</v>
+        <v>73.27740472504951</v>
       </c>
       <c r="H39" t="n">
-        <v>114.9213613606679</v>
+        <v>73.27740472504951</v>
       </c>
       <c r="I39" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J39" t="n">
-        <v>120.4127199202217</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="K39" t="n">
-        <v>366.1489360814929</v>
+        <v>296.4476481521845</v>
       </c>
       <c r="L39" t="n">
-        <v>757.4212114061545</v>
+        <v>687.7199234768461</v>
       </c>
       <c r="M39" t="n">
-        <v>1266.817695663801</v>
+        <v>1197.116407734492</v>
       </c>
       <c r="N39" t="n">
-        <v>1805.095121106633</v>
+        <v>1735.393833177324</v>
       </c>
       <c r="O39" t="n">
-        <v>2229.885785662707</v>
+        <v>2160.184497733399</v>
       </c>
       <c r="P39" t="n">
-        <v>2370.209254145837</v>
+        <v>2484.689915167484</v>
       </c>
       <c r="Q39" t="n">
         <v>2535.571599545659</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>347.3094344677676</v>
+        <v>516.3307518307292</v>
       </c>
       <c r="C40" t="n">
-        <v>347.3094344677676</v>
+        <v>516.3307518307292</v>
       </c>
       <c r="D40" t="n">
-        <v>347.3094344677676</v>
+        <v>516.3307518307292</v>
       </c>
       <c r="E40" t="n">
-        <v>347.3094344677676</v>
+        <v>516.3307518307292</v>
       </c>
       <c r="F40" t="n">
-        <v>347.3094344677676</v>
+        <v>516.3307518307292</v>
       </c>
       <c r="G40" t="n">
         <v>347.3094344677676</v>
@@ -7362,22 +7362,22 @@
         <v>679.5420961591335</v>
       </c>
       <c r="T40" t="n">
-        <v>679.5420961591335</v>
+        <v>516.3307518307292</v>
       </c>
       <c r="U40" t="n">
-        <v>390.6311794045659</v>
+        <v>516.3307518307292</v>
       </c>
       <c r="V40" t="n">
-        <v>390.6311794045659</v>
+        <v>516.3307518307292</v>
       </c>
       <c r="W40" t="n">
-        <v>390.6311794045659</v>
+        <v>516.3307518307292</v>
       </c>
       <c r="X40" t="n">
-        <v>390.6311794045659</v>
+        <v>516.3307518307292</v>
       </c>
       <c r="Y40" t="n">
-        <v>347.3094344677676</v>
+        <v>516.3307518307292</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1226.178958163341</v>
+        <v>632.5714724109656</v>
       </c>
       <c r="C41" t="n">
-        <v>855.4869423260247</v>
+        <v>632.5714724109656</v>
       </c>
       <c r="D41" t="n">
-        <v>855.4869423260247</v>
+        <v>272.364671648745</v>
       </c>
       <c r="E41" t="n">
-        <v>468.4990274216939</v>
+        <v>272.364671648745</v>
       </c>
       <c r="F41" t="n">
-        <v>468.4990274216939</v>
+        <v>272.364671648745</v>
       </c>
       <c r="G41" t="n">
-        <v>50.71143199091319</v>
+        <v>272.364671648745</v>
       </c>
       <c r="H41" t="n">
         <v>50.71143199091319</v>
@@ -7411,19 +7411,19 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J41" t="n">
-        <v>154.6737472370296</v>
+        <v>154.6737472370293</v>
       </c>
       <c r="K41" t="n">
-        <v>432.7629010724813</v>
+        <v>432.7629010724809</v>
       </c>
       <c r="L41" t="n">
-        <v>829.7261648535823</v>
+        <v>829.726164853582</v>
       </c>
       <c r="M41" t="n">
         <v>1286.636576300462</v>
       </c>
       <c r="N41" t="n">
-        <v>1735.423100897411</v>
+        <v>1735.42310089741</v>
       </c>
       <c r="O41" t="n">
         <v>2113.071138623965</v>
@@ -7435,28 +7435,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R41" t="n">
-        <v>2535.571599545659</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="S41" t="n">
-        <v>2535.571599545659</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="T41" t="n">
-        <v>2535.571599545659</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="U41" t="n">
-        <v>2378.971969146977</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="V41" t="n">
-        <v>2378.971969146977</v>
+        <v>2139.435308647688</v>
       </c>
       <c r="W41" t="n">
-        <v>2378.971969146977</v>
+        <v>1785.364483394602</v>
       </c>
       <c r="X41" t="n">
-        <v>2004.364293256907</v>
+        <v>1410.756807504532</v>
       </c>
       <c r="Y41" t="n">
-        <v>1613.771291487982</v>
+        <v>1020.163805735607</v>
       </c>
     </row>
     <row r="42">
@@ -7490,7 +7490,7 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J42" t="n">
-        <v>120.4127199202217</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="K42" t="n">
         <v>181.9669871305373</v>
@@ -7517,13 +7517,13 @@
         <v>2481.698134656769</v>
       </c>
       <c r="S42" t="n">
-        <v>2470.252003537142</v>
+        <v>2323.528421865784</v>
       </c>
       <c r="T42" t="n">
-        <v>2272.5778151726</v>
+        <v>2125.854233501242</v>
       </c>
       <c r="U42" t="n">
-        <v>2045.695642583436</v>
+        <v>1898.972060912078</v>
       </c>
       <c r="V42" t="n">
         <v>1811.444399109037</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1906.740935377439</v>
+        <v>198.3468071523319</v>
       </c>
       <c r="C43" t="n">
-        <v>1906.740935377439</v>
+        <v>198.3468071523319</v>
       </c>
       <c r="D43" t="n">
-        <v>1906.740935377439</v>
+        <v>198.3468071523319</v>
       </c>
       <c r="E43" t="n">
-        <v>1906.740935377439</v>
+        <v>198.3468071523319</v>
       </c>
       <c r="F43" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="G43" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H43" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I43" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="J43" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="K43" t="n">
-        <v>1956.351184640836</v>
+        <v>100.3216812543103</v>
       </c>
       <c r="L43" t="n">
-        <v>2075.638838623408</v>
+        <v>219.6093352368815</v>
       </c>
       <c r="M43" t="n">
-        <v>2212.003844007148</v>
+        <v>355.9743406206215</v>
       </c>
       <c r="N43" t="n">
-        <v>2350.267656248476</v>
+        <v>494.2381528619504</v>
       </c>
       <c r="O43" t="n">
-        <v>2462.640068944411</v>
+        <v>606.6105655578849</v>
       </c>
       <c r="P43" t="n">
-        <v>2535.571599545659</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="Q43" t="n">
-        <v>2535.571599545659</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="R43" t="n">
-        <v>2535.571599545659</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="S43" t="n">
-        <v>2535.571599545659</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="T43" t="n">
-        <v>2535.571599545659</v>
+        <v>453.8380708563109</v>
       </c>
       <c r="U43" t="n">
-        <v>2246.660682791092</v>
+        <v>453.8380708563109</v>
       </c>
       <c r="V43" t="n">
-        <v>1991.169419087113</v>
+        <v>198.3468071523319</v>
       </c>
       <c r="W43" t="n">
-        <v>1906.740935377439</v>
+        <v>198.3468071523319</v>
       </c>
       <c r="X43" t="n">
-        <v>1906.740935377439</v>
+        <v>198.3468071523319</v>
       </c>
       <c r="Y43" t="n">
-        <v>1906.740935377439</v>
+        <v>198.3468071523319</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1398.92657387502</v>
+        <v>964.4232113226012</v>
       </c>
       <c r="C44" t="n">
-        <v>1398.92657387502</v>
+        <v>593.7311954852854</v>
       </c>
       <c r="D44" t="n">
-        <v>1038.719773112799</v>
+        <v>593.7311954852854</v>
       </c>
       <c r="E44" t="n">
-        <v>1038.719773112799</v>
+        <v>462.1193749005504</v>
       </c>
       <c r="F44" t="n">
-        <v>627.3118302031619</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="G44" t="n">
-        <v>209.5242347723812</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H44" t="n">
-        <v>209.5242347723812</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I44" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J44" t="n">
-        <v>154.6737472370293</v>
+        <v>154.6737472370296</v>
       </c>
       <c r="K44" t="n">
-        <v>432.762901072481</v>
+        <v>432.7629010724813</v>
       </c>
       <c r="L44" t="n">
-        <v>829.7261648535821</v>
+        <v>829.7261648535823</v>
       </c>
       <c r="M44" t="n">
         <v>1286.636576300462</v>
@@ -7672,28 +7672,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R44" t="n">
-        <v>2535.571599545659</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="S44" t="n">
-        <v>2535.571599545659</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="T44" t="n">
-        <v>2515.197408342817</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="U44" t="n">
-        <v>2515.197408342817</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="V44" t="n">
-        <v>2515.197408342817</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="W44" t="n">
-        <v>2161.126583089731</v>
+        <v>2117.216222306238</v>
       </c>
       <c r="X44" t="n">
-        <v>1786.518907199661</v>
+        <v>1742.608546416168</v>
       </c>
       <c r="Y44" t="n">
-        <v>1786.518907199661</v>
+        <v>1352.015544647243</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>886.7819051675707</v>
+        <v>832.9084402786798</v>
       </c>
       <c r="C45" t="n">
-        <v>714.0287900893879</v>
+        <v>660.1553252004969</v>
       </c>
       <c r="D45" t="n">
-        <v>566.4404834483319</v>
+        <v>512.5670185594408</v>
       </c>
       <c r="E45" t="n">
-        <v>408.8309544511866</v>
+        <v>354.9574895622956</v>
       </c>
       <c r="F45" t="n">
-        <v>263.8751644678034</v>
+        <v>210.0016995789124</v>
       </c>
       <c r="G45" t="n">
-        <v>127.1508696139405</v>
+        <v>210.0016995789124</v>
       </c>
       <c r="H45" t="n">
-        <v>114.9213613606679</v>
+        <v>104.9220745431727</v>
       </c>
       <c r="I45" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J45" t="n">
-        <v>101.5931163690881</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="K45" t="n">
-        <v>347.3293325303594</v>
+        <v>296.4476481521845</v>
       </c>
       <c r="L45" t="n">
-        <v>738.601607855021</v>
+        <v>687.7199234768461</v>
       </c>
       <c r="M45" t="n">
-        <v>1247.998092112667</v>
+        <v>1197.116407734492</v>
       </c>
       <c r="N45" t="n">
-        <v>1786.275517555499</v>
+        <v>1735.393833177324</v>
       </c>
       <c r="O45" t="n">
-        <v>2211.066182111574</v>
+        <v>2160.184497733399</v>
       </c>
       <c r="P45" t="n">
-        <v>2535.571599545659</v>
+        <v>2370.209254145837</v>
       </c>
       <c r="Q45" t="n">
         <v>2535.571599545659</v>
       </c>
       <c r="R45" t="n">
-        <v>2535.571599545659</v>
+        <v>2481.698134656769</v>
       </c>
       <c r="S45" t="n">
-        <v>2377.401886754675</v>
+        <v>2323.528421865784</v>
       </c>
       <c r="T45" t="n">
-        <v>2179.727698390133</v>
+        <v>2125.854233501242</v>
       </c>
       <c r="U45" t="n">
-        <v>1952.845525800969</v>
+        <v>1898.972060912078</v>
       </c>
       <c r="V45" t="n">
-        <v>1718.59428232657</v>
+        <v>1664.720817437679</v>
       </c>
       <c r="W45" t="n">
-        <v>1466.079790659903</v>
+        <v>1412.206325771012</v>
       </c>
       <c r="X45" t="n">
-        <v>1259.552892065481</v>
+        <v>1205.67942717659</v>
       </c>
       <c r="Y45" t="n">
-        <v>1053.824456289131</v>
+        <v>999.9509914002402</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>219.7382531335418</v>
+        <v>368.1919656904397</v>
       </c>
       <c r="C46" t="n">
-        <v>50.71143199091319</v>
+        <v>368.1919656904397</v>
       </c>
       <c r="D46" t="n">
-        <v>50.71143199091319</v>
+        <v>368.1919656904397</v>
       </c>
       <c r="E46" t="n">
-        <v>50.71143199091319</v>
+        <v>219.7327493538749</v>
       </c>
       <c r="F46" t="n">
-        <v>50.71143199091319</v>
+        <v>219.7327493538749</v>
       </c>
       <c r="G46" t="n">
         <v>50.71143199091319</v>
@@ -7833,25 +7833,25 @@
         <v>679.5420961591335</v>
       </c>
       <c r="S46" t="n">
-        <v>464.7698324521643</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="T46" t="n">
-        <v>464.7698324521643</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="U46" t="n">
-        <v>464.7698324521643</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="V46" t="n">
-        <v>464.7698324521643</v>
+        <v>424.0508324551545</v>
       </c>
       <c r="W46" t="n">
-        <v>464.7698324521643</v>
+        <v>424.0508324551545</v>
       </c>
       <c r="X46" t="n">
-        <v>464.7698324521643</v>
+        <v>424.0508324551545</v>
       </c>
       <c r="Y46" t="n">
-        <v>401.6409718110002</v>
+        <v>424.0508324551545</v>
       </c>
     </row>
   </sheetData>
@@ -7987,7 +7987,7 @@
         <v>434.3676631324684</v>
       </c>
       <c r="M2" t="n">
-        <v>467.4940748325458</v>
+        <v>467.4940748325457</v>
       </c>
       <c r="N2" t="n">
         <v>454.8408013884635</v>
@@ -7999,7 +7999,7 @@
         <v>334.6706564983419</v>
       </c>
       <c r="Q2" t="n">
-        <v>220.807590286301</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R2" t="n">
         <v>68.34507666790174</v>
@@ -8060,7 +8060,7 @@
         <v>123.666686</v>
       </c>
       <c r="K3" t="n">
-        <v>275.0438464930818</v>
+        <v>150.7119311045153</v>
       </c>
       <c r="L3" t="n">
         <v>385.6739591155975</v>
@@ -8069,16 +8069,16 @@
         <v>412.8644904155703</v>
       </c>
       <c r="N3" t="n">
-        <v>128.05816928125</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O3" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P3" t="n">
-        <v>198.5787896705959</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q3" t="n">
-        <v>218.4803792452831</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R3" t="n">
         <v>47.34253660377365</v>
@@ -8294,28 +8294,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J6" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K6" t="n">
-        <v>275.0438464930818</v>
+        <v>134.395403</v>
       </c>
       <c r="L6" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M6" t="n">
-        <v>354.7721594580186</v>
+        <v>412.8644904155703</v>
       </c>
       <c r="N6" t="n">
-        <v>128.05816928125</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O6" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P6" t="n">
-        <v>331.2012793855346</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q6" t="n">
-        <v>136.482229733871</v>
+        <v>152.7987578383863</v>
       </c>
       <c r="R6" t="n">
         <v>47.34253660377365</v>
@@ -8531,22 +8531,22 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J9" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K9" t="n">
         <v>275.0438464930818</v>
       </c>
       <c r="L9" t="n">
-        <v>327.5816281580458</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M9" t="n">
-        <v>138.5806830739679</v>
+        <v>412.8644904155703</v>
       </c>
       <c r="N9" t="n">
         <v>402.3419766228525</v>
       </c>
       <c r="O9" t="n">
-        <v>409.6168120477987</v>
+        <v>335.2921033328898</v>
       </c>
       <c r="P9" t="n">
         <v>331.2012793855346</v>
@@ -8780,16 +8780,16 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N12" t="n">
-        <v>498.5160693172957</v>
+        <v>312.4736966395628</v>
       </c>
       <c r="O12" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P12" t="n">
-        <v>312.1915788288343</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q12" t="n">
-        <v>51.44770712425047</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R12" t="n">
         <v>47.34253660377365</v>
@@ -9008,7 +9008,7 @@
         <v>60.72933541128936</v>
       </c>
       <c r="K15" t="n">
-        <v>159.4068151580847</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L15" t="n">
         <v>385.6739591155975</v>
@@ -9026,7 +9026,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q15" t="n">
-        <v>218.4803792452831</v>
+        <v>102.843347910286</v>
       </c>
       <c r="R15" t="n">
         <v>47.34253660377365</v>
@@ -9245,7 +9245,7 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K18" t="n">
-        <v>89.00147381534887</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L18" t="n">
         <v>385.6739591155975</v>
@@ -9260,10 +9260,10 @@
         <v>409.6168120477987</v>
       </c>
       <c r="P18" t="n">
-        <v>331.2012793855346</v>
+        <v>312.1915788288343</v>
       </c>
       <c r="Q18" t="n">
-        <v>218.4803792452831</v>
+        <v>51.44770712425047</v>
       </c>
       <c r="R18" t="n">
         <v>47.34253660377365</v>
@@ -9479,7 +9479,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J21" t="n">
-        <v>131.1346767540252</v>
+        <v>60.72933541128936</v>
       </c>
       <c r="K21" t="n">
         <v>275.0438464930818</v>
@@ -9488,7 +9488,7 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M21" t="n">
-        <v>465.3235657432994</v>
+        <v>484.3332662999999</v>
       </c>
       <c r="N21" t="n">
         <v>498.5160693172957</v>
@@ -9497,10 +9497,10 @@
         <v>409.6168120477987</v>
       </c>
       <c r="P21" t="n">
-        <v>331.2012793855346</v>
+        <v>215.5642480505376</v>
       </c>
       <c r="Q21" t="n">
-        <v>51.44770712425046</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R21" t="n">
         <v>47.34253660377365</v>
@@ -9716,7 +9716,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J24" t="n">
-        <v>131.1346767540252</v>
+        <v>60.72933541128936</v>
       </c>
       <c r="K24" t="n">
         <v>275.0438464930818</v>
@@ -9734,10 +9734,10 @@
         <v>409.6168120477987</v>
       </c>
       <c r="P24" t="n">
-        <v>312.1915788288343</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q24" t="n">
-        <v>51.44770712425047</v>
+        <v>102.843347910286</v>
       </c>
       <c r="R24" t="n">
         <v>47.34253660377365</v>
@@ -9956,7 +9956,7 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K27" t="n">
-        <v>89.00147381534887</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L27" t="n">
         <v>385.6739591155975</v>
@@ -9965,7 +9965,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N27" t="n">
-        <v>498.5160693172957</v>
+        <v>312.4736966395628</v>
       </c>
       <c r="O27" t="n">
         <v>409.6168120477987</v>
@@ -10190,7 +10190,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J30" t="n">
-        <v>60.72933541128936</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K30" t="n">
         <v>275.0438464930818</v>
@@ -10202,7 +10202,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N30" t="n">
-        <v>382.8790379822985</v>
+        <v>312.4736966395628</v>
       </c>
       <c r="O30" t="n">
         <v>409.6168120477987</v>
@@ -10427,10 +10427,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J33" t="n">
-        <v>131.1346767540252</v>
+        <v>60.72933541128936</v>
       </c>
       <c r="K33" t="n">
-        <v>89.00147381534887</v>
+        <v>159.4068151580847</v>
       </c>
       <c r="L33" t="n">
         <v>385.6739591155975</v>
@@ -10664,7 +10664,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J36" t="n">
-        <v>112.1249761973247</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K36" t="n">
         <v>275.0438464930818</v>
@@ -10673,7 +10673,7 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M36" t="n">
-        <v>484.3332662999999</v>
+        <v>298.290893622267</v>
       </c>
       <c r="N36" t="n">
         <v>498.5160693172957</v>
@@ -10685,7 +10685,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q36" t="n">
-        <v>51.44770712425047</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R36" t="n">
         <v>47.34253660377365</v>
@@ -10901,7 +10901,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J39" t="n">
-        <v>131.1346767540252</v>
+        <v>60.72933541128936</v>
       </c>
       <c r="K39" t="n">
         <v>275.0438464930818</v>
@@ -10919,10 +10919,10 @@
         <v>409.6168120477987</v>
       </c>
       <c r="P39" t="n">
-        <v>145.1589067078019</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q39" t="n">
-        <v>218.4803792452831</v>
+        <v>102.843347910286</v>
       </c>
       <c r="R39" t="n">
         <v>47.34253660377365</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>175.8604797789567</v>
+        <v>175.8604797789566</v>
       </c>
       <c r="K41" t="n">
         <v>337.1112290740114</v>
@@ -11138,10 +11138,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J42" t="n">
-        <v>131.1346767540252</v>
+        <v>60.72933541128936</v>
       </c>
       <c r="K42" t="n">
-        <v>89.00147381534887</v>
+        <v>159.4068151580847</v>
       </c>
       <c r="L42" t="n">
         <v>385.6739591155975</v>
@@ -11375,7 +11375,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J45" t="n">
-        <v>112.1249761973247</v>
+        <v>60.72933541128936</v>
       </c>
       <c r="K45" t="n">
         <v>275.0438464930818</v>
@@ -11393,10 +11393,10 @@
         <v>409.6168120477987</v>
       </c>
       <c r="P45" t="n">
-        <v>331.2012793855346</v>
+        <v>215.5642480505376</v>
       </c>
       <c r="Q45" t="n">
-        <v>51.44770712425047</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R45" t="n">
         <v>47.34253660377365</v>
@@ -23257,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>70.3451161897828</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>407.2938634805408</v>
@@ -23305,19 +23305,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>63.64170646647294</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>177.493467653868</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>297.8525746046786</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="12">
@@ -23342,13 +23342,13 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>1.750113771095272</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -23402,7 +23402,7 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>145.2563458546446</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.3365529312023</v>
       </c>
       <c r="D13" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.9746241731992</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G13" t="n">
         <v>167.3311041893321</v>
@@ -23436,10 +23436,10 @@
         <v>156.6686349500177</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>136.9633875020681</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>49.35397375491781</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23466,10 +23466,10 @@
         <v>148.2796428708918</v>
       </c>
       <c r="S13" t="n">
-        <v>212.6245410698995</v>
+        <v>137.9201154163327</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>225.9462130081922</v>
       </c>
       <c r="U13" t="n">
         <v>286.0218075870219</v>
@@ -23478,13 +23478,13 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W13" t="n">
-        <v>221.97281503586</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X13" t="n">
         <v>226.1403599323093</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.7486738677682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23497,25 +23497,25 @@
         <v>383.716409991395</v>
       </c>
       <c r="C14" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>318.7216232999222</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>413.6097194764729</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>157.2246747536534</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>63.64170646647294</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3781599023558</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W14" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>244.1305962424334</v>
       </c>
     </row>
     <row r="15">
@@ -23573,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>145.2563458546446</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -23627,7 +23627,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>145.2563458546447</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>81.80219157891237</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C16" t="n">
         <v>167.3365529312023</v>
@@ -23670,13 +23670,13 @@
         <v>167.3311041893321</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.6686349500177</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>136.9633875020681</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>49.35397375491781</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,25 +23697,25 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>32.99521853687121</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>148.2796428708918</v>
       </c>
       <c r="S16" t="n">
         <v>212.6245410698995</v>
       </c>
       <c r="T16" t="n">
-        <v>225.9462130081922</v>
+        <v>142.4327834360088</v>
       </c>
       <c r="U16" t="n">
         <v>286.0218075870219</v>
       </c>
       <c r="V16" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>226.1403599323093</v>
@@ -23731,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E17" t="n">
         <v>383.1180357552875</v>
@@ -23746,13 +23746,13 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>413.6097194764729</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,13 +23779,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>40.57572618211846</v>
+        <v>42.32181556544701</v>
       </c>
       <c r="S17" t="n">
         <v>177.493467653868</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23794,10 +23794,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23822,16 +23822,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>9.899293949320253</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>135.3570519053243</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>63.56783007605712</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23861,7 +23861,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>81.68851577858754</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23904,10 +23904,10 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>116.9031311372314</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>156.6686349500177</v>
       </c>
       <c r="I19" t="n">
         <v>136.9633875020681</v>
@@ -23943,10 +23943,10 @@
         <v>212.6245410698995</v>
       </c>
       <c r="T19" t="n">
-        <v>213.4961715084194</v>
+        <v>225.9462130081922</v>
       </c>
       <c r="U19" t="n">
-        <v>286.0218075870219</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.9363510669392</v>
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D20" t="n">
-        <v>251.0762439930717</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23983,13 +23983,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>413.6097194764729</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,16 +24016,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>63.64170646647294</v>
       </c>
       <c r="S20" t="n">
         <v>177.493467653868</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3781599023558</v>
+        <v>18.35431192074606</v>
       </c>
       <c r="V20" t="n">
         <v>328.5332215225193</v>
@@ -24034,10 +24034,10 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X20" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="21">
@@ -24065,10 +24065,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>81.6885157785874</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24110,7 +24110,7 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>145.2563458546444</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -24129,28 +24129,28 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C22" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>149.0055665145194</v>
       </c>
       <c r="E22" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>146.1590214098045</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3311041893321</v>
+        <v>112.0362748341347</v>
       </c>
       <c r="H22" t="n">
-        <v>120.9766743724632</v>
+        <v>156.6686349500177</v>
       </c>
       <c r="I22" t="n">
         <v>136.9633875020681</v>
       </c>
       <c r="J22" t="n">
-        <v>49.3539737549178</v>
+        <v>49.35397375491781</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,22 +24171,22 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>32.9952185368712</v>
+        <v>32.99521853687121</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>148.2796428708918</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>212.6245410698995</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>225.9462130081922</v>
       </c>
       <c r="U22" t="n">
         <v>286.0218075870219</v>
       </c>
       <c r="V22" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.0925768874155</v>
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D23" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>383.1180357552875</v>
       </c>
       <c r="F23" t="n">
-        <v>189.2911454753893</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>413.6097194764729</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,22 +24256,22 @@
         <v>63.64170646647294</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>177.493467653868</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>160.9529442067733</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y23" t="n">
         <v>386.6870717512358</v>
@@ -24296,13 +24296,13 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>1.750113771095229</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -24353,7 +24353,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>145.2563458546445</v>
       </c>
     </row>
     <row r="25">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>69.58012385975343</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C25" t="n">
         <v>167.3365529312023</v>
@@ -24378,7 +24378,7 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3311041893321</v>
+        <v>23.67131073792538</v>
       </c>
       <c r="H25" t="n">
         <v>156.6686349500177</v>
@@ -24423,10 +24423,10 @@
         <v>286.0218075870219</v>
       </c>
       <c r="V25" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X25" t="n">
         <v>226.1403599323093</v>
@@ -24448,7 +24448,7 @@
         <v>366.9850956789426</v>
       </c>
       <c r="D26" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24457,13 +24457,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>413.6097194764729</v>
+        <v>330.3453083621881</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24496,13 +24496,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>202.1096860900625</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24536,10 +24536,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>81.6885157785874</v>
       </c>
       <c r="H27" t="n">
-        <v>28.3537855385853</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>63.56783007605712</v>
@@ -24569,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>53.33473024000174</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>69.77427078387049</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D28" t="n">
         <v>149.0055665145194</v>
@@ -24654,7 +24654,7 @@
         <v>212.6245410698995</v>
       </c>
       <c r="T28" t="n">
-        <v>169.5727737713084</v>
+        <v>225.9462130081922</v>
       </c>
       <c r="U28" t="n">
         <v>286.0218075870219</v>
@@ -24663,13 +24663,13 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W28" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>226.1403599323093</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="29">
@@ -24685,10 +24685,10 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>356.6047327545984</v>
+        <v>204.3121348976754</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24733,13 +24733,13 @@
         <v>177.493467653868</v>
       </c>
       <c r="T29" t="n">
-        <v>119.8071450252559</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U29" t="n">
         <v>251.3781599023558</v>
       </c>
       <c r="V29" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>350.5301170005546</v>
@@ -24758,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>145.2563458546446</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -24824,7 +24824,7 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>145.2563458546446</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.3311041893321</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>156.6686349500177</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>136.9633875020681</v>
       </c>
       <c r="J31" t="n">
         <v>49.35397375491781</v>
@@ -24885,22 +24885,22 @@
         <v>32.99521853687121</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>148.2796428708918</v>
       </c>
       <c r="S31" t="n">
-        <v>199.3249530556711</v>
+        <v>212.6245410698995</v>
       </c>
       <c r="T31" t="n">
-        <v>225.9462130081922</v>
+        <v>175.5182399560914</v>
       </c>
       <c r="U31" t="n">
-        <v>286.0218075870219</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W31" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>226.1403599323093</v>
@@ -24925,19 +24925,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>151.4205553641197</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F32" t="n">
         <v>407.2938634805408</v>
       </c>
       <c r="G32" t="n">
-        <v>413.6097194764729</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>118.2705326188321</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>63.64170646647294</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -25013,10 +25013,10 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>81.6885157785874</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25046,7 +25046,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>145.2563458546447</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -25080,13 +25080,13 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D34" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.9746241731992</v>
+        <v>105.6186621580069</v>
       </c>
       <c r="F34" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>167.3311041893321</v>
@@ -25128,13 +25128,13 @@
         <v>212.6245410698995</v>
       </c>
       <c r="T34" t="n">
-        <v>142.3620141356151</v>
+        <v>225.9462130081922</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W34" t="n">
         <v>286.0925768874155</v>
@@ -25159,22 +25159,22 @@
         <v>366.9850956789426</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E35" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>413.6097194764729</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>325.3930767845979</v>
       </c>
       <c r="I35" t="n">
-        <v>157.2246747536534</v>
+        <v>106.1415149270291</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>63.64170646647294</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>177.493467653868</v>
       </c>
       <c r="T35" t="n">
         <v>217.5149286494106</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W35" t="n">
-        <v>166.4000055578027</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D37" t="n">
         <v>149.0055665145194</v>
@@ -25323,13 +25323,13 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F37" t="n">
-        <v>146.1590214098045</v>
+        <v>73.56261603080844</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3311041893321</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>156.6686349500177</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>136.9633875020681</v>
@@ -25365,7 +25365,7 @@
         <v>212.6245410698995</v>
       </c>
       <c r="T37" t="n">
-        <v>225.9462130081922</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.0218075870219</v>
@@ -25377,10 +25377,10 @@
         <v>286.0925768874155</v>
       </c>
       <c r="X37" t="n">
-        <v>169.7669206954255</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="38">
@@ -25396,22 +25396,22 @@
         <v>366.9850956789426</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E38" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>413.6097194764729</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>325.3930767845979</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,19 +25438,19 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>63.64170646647294</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>177.493467653868</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>102.7900623563134</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W38" t="n">
         <v>350.5301170005546</v>
@@ -25459,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>233.6444066974799</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25484,13 +25484,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>135.3570519053243</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>9.899293949320253</v>
+        <v>104.0288287853823</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>41.22751706926217</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25563,7 +25563,7 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G40" t="n">
-        <v>167.3311041893321</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25602,10 +25602,10 @@
         <v>212.6245410698995</v>
       </c>
       <c r="T40" t="n">
-        <v>225.9462130081922</v>
+        <v>64.36698212307195</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.0218075870219</v>
       </c>
       <c r="V40" t="n">
         <v>252.9363510669392</v>
@@ -25617,7 +25617,7 @@
         <v>226.1403599323093</v>
       </c>
       <c r="Y40" t="n">
-        <v>175.8601463803379</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="41">
@@ -25630,22 +25630,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D41" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F41" t="n">
         <v>407.2938634805408</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.6097194764729</v>
       </c>
       <c r="H41" t="n">
-        <v>325.3930767845979</v>
+        <v>105.9563695233444</v>
       </c>
       <c r="I41" t="n">
         <v>157.2246747536534</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>63.64170646647294</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>177.493467653868</v>
@@ -25684,13 +25684,13 @@
         <v>217.5149286494106</v>
       </c>
       <c r="U41" t="n">
-        <v>96.34452580766043</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V41" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25757,7 +25757,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>145.2563458546447</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -25766,7 +25766,7 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>145.2563458546444</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -25797,7 +25797,7 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F43" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>167.3311041893321</v>
@@ -25839,16 +25839,16 @@
         <v>212.6245410698995</v>
       </c>
       <c r="T43" t="n">
-        <v>225.9462130081922</v>
+        <v>2.499227958397768</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.0218075870219</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>202.5083780148386</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X43" t="n">
         <v>226.1403599323093</v>
@@ -25867,25 +25867,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E44" t="n">
-        <v>383.1180357552875</v>
+        <v>252.8223333763998</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>413.6097194764729</v>
       </c>
       <c r="H44" t="n">
         <v>325.3930767845979</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,13 +25912,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>63.64170646647294</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>177.493467653868</v>
       </c>
       <c r="T44" t="n">
-        <v>197.3444793585963</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U44" t="n">
         <v>251.3781599023558</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25958,13 +25958,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>135.3570519053243</v>
       </c>
       <c r="H45" t="n">
-        <v>91.92161561464245</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>9.899293949320239</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>53.33473024000174</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -26022,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>124.7834133936161</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D46" t="n">
         <v>149.0055665145194</v>
       </c>
       <c r="E46" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>146.1590214098045</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3311041893321</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>156.6686349500177</v>
@@ -26073,7 +26073,7 @@
         <v>148.2796428708918</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>212.6245410698995</v>
       </c>
       <c r="T46" t="n">
         <v>225.9462130081922</v>
@@ -26082,7 +26082,7 @@
         <v>286.0218075870219</v>
       </c>
       <c r="V46" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.0925768874155</v>
@@ -26091,7 +26091,7 @@
         <v>226.1403599323093</v>
       </c>
       <c r="Y46" t="n">
-        <v>156.2511018330158</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>608141.5247199622</v>
+        <v>608141.5247199623</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>608141.5247199623</v>
+        <v>608141.5247199622</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>608141.5247199619</v>
+        <v>608141.5247199623</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>608141.5247199624</v>
+        <v>608141.5247199623</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>608141.5247199623</v>
+        <v>608141.524719962</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>549395.6008150821</v>
+        <v>549395.6008150822</v>
       </c>
       <c r="C2" t="n">
-        <v>549395.6008150824</v>
+        <v>549395.6008150826</v>
       </c>
       <c r="D2" t="n">
-        <v>549395.6008150823</v>
+        <v>549395.6008150826</v>
       </c>
       <c r="E2" t="n">
-        <v>370369.7689942412</v>
+        <v>370369.7689942413</v>
       </c>
       <c r="F2" t="n">
-        <v>370369.7689942411</v>
+        <v>370369.768994241</v>
       </c>
       <c r="G2" t="n">
         <v>370369.7689942411</v>
       </c>
       <c r="H2" t="n">
-        <v>370369.7689942412</v>
+        <v>370369.7689942411</v>
       </c>
       <c r="I2" t="n">
         <v>370369.7689942412</v>
       </c>
       <c r="J2" t="n">
+        <v>370369.7689942412</v>
+      </c>
+      <c r="K2" t="n">
         <v>370369.7689942413</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>370369.7689942412</v>
+      </c>
+      <c r="M2" t="n">
+        <v>370369.7689942413</v>
+      </c>
+      <c r="N2" t="n">
+        <v>370369.7689942412</v>
+      </c>
+      <c r="O2" t="n">
         <v>370369.7689942411</v>
       </c>
-      <c r="L2" t="n">
+      <c r="P2" t="n">
         <v>370369.7689942411</v>
-      </c>
-      <c r="M2" t="n">
-        <v>370369.7689942412</v>
-      </c>
-      <c r="N2" t="n">
-        <v>370369.7689942413</v>
-      </c>
-      <c r="O2" t="n">
-        <v>370369.768994241</v>
-      </c>
-      <c r="P2" t="n">
-        <v>370369.7689942412</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91918.81236773985</v>
+        <v>91918.81236773984</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>89616.02429853742</v>
+        <v>89616.02429853739</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,16 +26420,16 @@
         <v>284530.0264572389</v>
       </c>
       <c r="C4" t="n">
+        <v>284530.0264572389</v>
+      </c>
+      <c r="D4" t="n">
         <v>284530.026457239</v>
-      </c>
-      <c r="D4" t="n">
-        <v>284530.0264572389</v>
       </c>
       <c r="E4" t="n">
         <v>18775.56330614278</v>
       </c>
       <c r="F4" t="n">
-        <v>18775.56330614278</v>
+        <v>18775.56330614277</v>
       </c>
       <c r="G4" t="n">
         <v>18775.56330614278</v>
@@ -26438,7 +26438,7 @@
         <v>18775.56330614277</v>
       </c>
       <c r="I4" t="n">
-        <v>18775.56330614278</v>
+        <v>18775.56330614277</v>
       </c>
       <c r="J4" t="n">
         <v>18775.56330614278</v>
@@ -26450,10 +26450,10 @@
         <v>18775.56330614278</v>
       </c>
       <c r="M4" t="n">
+        <v>18775.56330614278</v>
+      </c>
+      <c r="N4" t="n">
         <v>18775.56330614277</v>
-      </c>
-      <c r="N4" t="n">
-        <v>18775.56330614278</v>
       </c>
       <c r="O4" t="n">
         <v>18775.56330614278</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>122642.7065037339</v>
+        <v>122642.706503734</v>
       </c>
       <c r="C6" t="n">
-        <v>214561.518871474</v>
+        <v>214561.5188714742</v>
       </c>
       <c r="D6" t="n">
-        <v>214561.518871474</v>
+        <v>214561.5188714741</v>
       </c>
       <c r="E6" t="n">
-        <v>-49887.48531425657</v>
+        <v>-56518.07167799139</v>
       </c>
       <c r="F6" t="n">
-        <v>306301.9445724236</v>
+        <v>299671.3582086886</v>
       </c>
       <c r="G6" t="n">
-        <v>306301.9445724236</v>
+        <v>299671.3582086887</v>
       </c>
       <c r="H6" t="n">
-        <v>306301.9445724236</v>
+        <v>299671.3582086887</v>
       </c>
       <c r="I6" t="n">
-        <v>306301.9445724236</v>
+        <v>299671.3582086888</v>
       </c>
       <c r="J6" t="n">
-        <v>234537.2320843374</v>
+        <v>227906.6457206025</v>
       </c>
       <c r="K6" t="n">
-        <v>306301.9445724236</v>
+        <v>299671.3582086888</v>
       </c>
       <c r="L6" t="n">
-        <v>306301.9445724236</v>
+        <v>299671.3582086888</v>
       </c>
       <c r="M6" t="n">
-        <v>216685.9202738862</v>
+        <v>210055.3339101514</v>
       </c>
       <c r="N6" t="n">
-        <v>306301.9445724237</v>
+        <v>299671.3582086888</v>
       </c>
       <c r="O6" t="n">
-        <v>306301.9445724235</v>
+        <v>299671.3582086887</v>
       </c>
       <c r="P6" t="n">
-        <v>306301.9445724236</v>
+        <v>299671.3582086887</v>
       </c>
     </row>
   </sheetData>
@@ -26755,7 +26755,7 @@
         <v>309.705174430311</v>
       </c>
       <c r="H3" t="n">
-        <v>309.7051744303111</v>
+        <v>309.705174430311</v>
       </c>
       <c r="I3" t="n">
         <v>309.705174430311</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>359.6090925448124</v>
+        <v>359.6090925448123</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27393,10 +27393,10 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>140.5709580622284</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>63.86009604655089</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>222.9651171964204</v>
       </c>
       <c r="U2" t="n">
-        <v>251.4777635765444</v>
+        <v>37.06895969833053</v>
       </c>
       <c r="V2" t="n">
         <v>328.5332215225193</v>
@@ -27447,7 +27447,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y2" t="n">
-        <v>225.8423580872543</v>
+        <v>112.4032644096333</v>
       </c>
     </row>
     <row r="3">
@@ -27457,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>38.07530154417488</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27475,7 +27475,7 @@
         <v>136.0232102050423</v>
       </c>
       <c r="H3" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27511,22 +27511,22 @@
         <v>168.9616139056444</v>
       </c>
       <c r="T3" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W3" t="n">
-        <v>162.6952048236366</v>
+        <v>249.98934675</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="4">
@@ -27563,7 +27563,7 @@
         <v>88.83884492777894</v>
       </c>
       <c r="K4" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27587,7 +27587,7 @@
         <v>173.3911476697823</v>
       </c>
       <c r="S4" t="n">
-        <v>43.44428031981417</v>
+        <v>222.3574069614225</v>
       </c>
       <c r="T4" t="n">
         <v>228.3324659915077</v>
@@ -27602,7 +27602,7 @@
         <v>286.0925768874155</v>
       </c>
       <c r="X4" t="n">
-        <v>226.1403599323093</v>
+        <v>62.00164300853427</v>
       </c>
       <c r="Y4" t="n">
         <v>218.7486738677682</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>383.716409991395</v>
+        <v>255.4672710595409</v>
       </c>
       <c r="C5" t="n">
         <v>366.9850956789426</v>
@@ -27624,16 +27624,16 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E5" t="n">
-        <v>108.834228413685</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F5" t="n">
-        <v>181.2187285124509</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>338.1439033881534</v>
+        <v>63.86009604655089</v>
       </c>
       <c r="I5" t="n">
         <v>205.224307868124</v>
@@ -27663,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>205.8649517235392</v>
       </c>
       <c r="T5" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.4777635765444</v>
@@ -27678,7 +27678,7 @@
         <v>54.24941418091686</v>
       </c>
       <c r="W5" t="n">
-        <v>76.2463096589521</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X5" t="n">
         <v>370.8615991311694</v>
@@ -27694,28 +27694,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C6" t="n">
         <v>171.025583927401</v>
       </c>
       <c r="D6" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>45.54525063046391</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,16 +27742,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T6" t="n">
         <v>198.3825319082687</v>
       </c>
       <c r="U6" t="n">
-        <v>224.6571770672012</v>
+        <v>124.4639634504763</v>
       </c>
       <c r="V6" t="n">
         <v>231.9087310396551</v>
@@ -27763,7 +27763,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27776,10 +27776,10 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C7" t="n">
-        <v>167.3365529312023</v>
+        <v>152.2034025219467</v>
       </c>
       <c r="D7" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.9746241731992</v>
@@ -27800,7 +27800,7 @@
         <v>88.83884492777894</v>
       </c>
       <c r="K7" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27830,7 +27830,7 @@
         <v>228.3324659915077</v>
       </c>
       <c r="U7" t="n">
-        <v>107.1391437494559</v>
+        <v>286.0522703910642</v>
       </c>
       <c r="V7" t="n">
         <v>252.9363510669392</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>109.4326026497926</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C8" t="n">
-        <v>366.9850956789426</v>
+        <v>92.70128833734015</v>
       </c>
       <c r="D8" t="n">
         <v>356.6047327545984</v>
@@ -27864,10 +27864,10 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F8" t="n">
-        <v>133.0100561389384</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>396.8899822283304</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>338.1439033881534</v>
@@ -27900,25 +27900,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U8" t="n">
         <v>251.4777635765444</v>
       </c>
       <c r="V8" t="n">
-        <v>54.24941418091686</v>
+        <v>183.183917117784</v>
       </c>
       <c r="W8" t="n">
         <v>350.5301170005546</v>
       </c>
       <c r="X8" t="n">
-        <v>370.8615991311694</v>
+        <v>96.5777917895669</v>
       </c>
       <c r="Y8" t="n">
         <v>386.6870717512358</v>
@@ -27931,19 +27931,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -27952,7 +27952,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,25 +27979,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V9" t="n">
-        <v>187.1537033432166</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W9" t="n">
         <v>249.98934675</v>
       </c>
       <c r="X9" t="n">
-        <v>204.4616296084783</v>
+        <v>168.5565547074773</v>
       </c>
       <c r="Y9" t="n">
         <v>203.671151418586</v>
@@ -28025,7 +28025,7 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G10" t="n">
-        <v>167.8895889301081</v>
+        <v>3.750872006333083</v>
       </c>
       <c r="H10" t="n">
         <v>161.6340720089168</v>
@@ -28037,7 +28037,7 @@
         <v>88.83884492777894</v>
       </c>
       <c r="K10" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28067,7 +28067,7 @@
         <v>228.3324659915077</v>
       </c>
       <c r="U10" t="n">
-        <v>107.1391437494559</v>
+        <v>286.0522703910642</v>
       </c>
       <c r="V10" t="n">
         <v>252.9363510669392</v>
@@ -32463,13 +32463,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.245045927358034</v>
+        <v>1.245045927358033</v>
       </c>
       <c r="H20" t="n">
-        <v>12.75082660355547</v>
+        <v>12.75082660355546</v>
       </c>
       <c r="I20" t="n">
-        <v>47.99963311447064</v>
+        <v>47.99963311447063</v>
       </c>
       <c r="J20" t="n">
         <v>105.671716777104</v>
@@ -32478,10 +32478,10 @@
         <v>158.3745108821696</v>
       </c>
       <c r="L20" t="n">
-        <v>196.4775851815531</v>
+        <v>196.477585181553</v>
       </c>
       <c r="M20" t="n">
-        <v>218.6191706922065</v>
+        <v>218.6191706922064</v>
       </c>
       <c r="N20" t="n">
         <v>222.1566574333125</v>
@@ -32490,22 +32490,22 @@
         <v>209.776231993146</v>
       </c>
       <c r="P20" t="n">
-        <v>179.0391606614946</v>
+        <v>179.0391606614945</v>
       </c>
       <c r="Q20" t="n">
-        <v>134.450953387985</v>
+        <v>134.4509533879849</v>
       </c>
       <c r="R20" t="n">
-        <v>78.20911623440415</v>
+        <v>78.20911623440414</v>
       </c>
       <c r="S20" t="n">
         <v>28.37148406967122</v>
       </c>
       <c r="T20" t="n">
-        <v>5.450188547009795</v>
+        <v>5.450188547009794</v>
       </c>
       <c r="U20" t="n">
-        <v>0.09960367418864267</v>
+        <v>0.09960367418864266</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6661582997180276</v>
+        <v>0.6661582997180275</v>
       </c>
       <c r="H21" t="n">
-        <v>6.433686736750426</v>
+        <v>6.433686736750425</v>
       </c>
       <c r="I21" t="n">
         <v>22.93571338941455</v>
       </c>
       <c r="J21" t="n">
-        <v>62.93735058871069</v>
+        <v>62.93735058871067</v>
       </c>
       <c r="K21" t="n">
         <v>107.5699566698185</v>
@@ -32563,7 +32563,7 @@
         <v>168.7893200645195</v>
       </c>
       <c r="N21" t="n">
-        <v>173.2566711183304</v>
+        <v>173.2566711183303</v>
       </c>
       <c r="O21" t="n">
         <v>158.4960056351046</v>
@@ -32572,19 +32572,19 @@
         <v>127.2070177768574</v>
       </c>
       <c r="Q21" t="n">
-        <v>85.03452260962052</v>
+        <v>85.03452260962051</v>
       </c>
       <c r="R21" t="n">
-        <v>41.36024952108949</v>
+        <v>41.36024952108948</v>
       </c>
       <c r="S21" t="n">
-        <v>12.3735982425695</v>
+        <v>12.37359824256949</v>
       </c>
       <c r="T21" t="n">
-        <v>2.685085427372225</v>
+        <v>2.685085427372224</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04382620392881763</v>
+        <v>0.04382620392881762</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,10 +32621,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5584847407759708</v>
+        <v>0.5584847407759707</v>
       </c>
       <c r="H22" t="n">
-        <v>4.96543705889909</v>
+        <v>4.965437058899089</v>
       </c>
       <c r="I22" t="n">
         <v>16.79515929533556</v>
@@ -32633,37 +32633,37 @@
         <v>39.48487117286113</v>
       </c>
       <c r="K22" t="n">
-        <v>64.88577261015368</v>
+        <v>64.88577261015367</v>
       </c>
       <c r="L22" t="n">
-        <v>83.03144955136571</v>
+        <v>83.0314495513657</v>
       </c>
       <c r="M22" t="n">
-        <v>87.54502168363693</v>
+        <v>87.54502168363692</v>
       </c>
       <c r="N22" t="n">
-        <v>85.46339674074476</v>
+        <v>85.46339674074474</v>
       </c>
       <c r="O22" t="n">
-        <v>78.93927954167997</v>
+        <v>78.93927954167995</v>
       </c>
       <c r="P22" t="n">
-        <v>67.54619082985012</v>
+        <v>67.5461908298501</v>
       </c>
       <c r="Q22" t="n">
-        <v>46.76548133897698</v>
+        <v>46.76548133897697</v>
       </c>
       <c r="R22" t="n">
         <v>25.11150479889046</v>
       </c>
       <c r="S22" t="n">
-        <v>9.732865891523051</v>
+        <v>9.732865891523049</v>
       </c>
       <c r="T22" t="n">
         <v>2.386252983315511</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03046280404232572</v>
+        <v>0.03046280404232571</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34707,7 +34707,7 @@
         <v>204.4954085367308</v>
       </c>
       <c r="M2" t="n">
-        <v>242.9064974359549</v>
+        <v>242.9064974359548</v>
       </c>
       <c r="N2" t="n">
         <v>231.1630643817873</v>
@@ -34719,7 +34719,7 @@
         <v>109.2184856369541</v>
       </c>
       <c r="Q2" t="n">
-        <v>4.059542658712711</v>
+        <v>4.059542658712616</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>140.6484434930818</v>
+        <v>16.31652810451528</v>
       </c>
       <c r="L3" t="n">
         <v>250.5834388302202</v>
@@ -34789,16 +34789,16 @@
         <v>274.2838073416025</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="O3" t="n">
         <v>270.5854737144654</v>
       </c>
       <c r="P3" t="n">
-        <v>67.95374244162393</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>81.99814951141209</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>140.6484434930818</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>250.5834388302202</v>
       </c>
       <c r="M6" t="n">
-        <v>216.1914763840507</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="O6" t="n">
         <v>270.5854737144654</v>
       </c>
       <c r="P6" t="n">
-        <v>200.5762321565626</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>16.31652810451531</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35251,22 +35251,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>140.6484434930818</v>
       </c>
       <c r="L9" t="n">
-        <v>192.4911078726684</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="N9" t="n">
         <v>274.2838073416025</v>
       </c>
       <c r="O9" t="n">
-        <v>270.5854737144654</v>
+        <v>196.2607649995565</v>
       </c>
       <c r="P9" t="n">
         <v>200.5762321565626</v>
@@ -35500,16 +35500,16 @@
         <v>514.5419032905515</v>
       </c>
       <c r="N12" t="n">
-        <v>543.714571154376</v>
+        <v>357.6721984766432</v>
       </c>
       <c r="O12" t="n">
         <v>429.0814793495699</v>
       </c>
       <c r="P12" t="n">
-        <v>308.7735493767197</v>
+        <v>327.7832499334201</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>167.0326721210326</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35728,7 +35728,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>132.5813688279032</v>
+        <v>248.2184001629003</v>
       </c>
       <c r="L15" t="n">
         <v>395.2245205299612</v>
@@ -35746,7 +35746,7 @@
         <v>327.7832499334201</v>
       </c>
       <c r="Q15" t="n">
-        <v>167.0326721210326</v>
+        <v>51.39564078603548</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35965,7 +35965,7 @@
         <v>70.40534134273582</v>
       </c>
       <c r="K18" t="n">
-        <v>62.17602748516736</v>
+        <v>248.2184001629003</v>
       </c>
       <c r="L18" t="n">
         <v>395.2245205299612</v>
@@ -35980,10 +35980,10 @@
         <v>429.0814793495699</v>
       </c>
       <c r="P18" t="n">
-        <v>327.7832499334201</v>
+        <v>308.7735493767197</v>
       </c>
       <c r="Q18" t="n">
-        <v>167.0326721210326</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36129,19 +36129,19 @@
         <v>400.9729937182839</v>
       </c>
       <c r="M20" t="n">
-        <v>461.5256681281614</v>
+        <v>461.5256681281613</v>
       </c>
       <c r="N20" t="n">
-        <v>453.3197218150999</v>
+        <v>453.3197218150998</v>
       </c>
       <c r="O20" t="n">
-        <v>381.4626643702567</v>
+        <v>381.4626643702566</v>
       </c>
       <c r="P20" t="n">
         <v>288.2576462984487</v>
       </c>
       <c r="Q20" t="n">
-        <v>138.5104960466976</v>
+        <v>138.5104960466975</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,16 +36199,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>70.40534134273584</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>248.2184001629003</v>
       </c>
       <c r="L21" t="n">
-        <v>395.2245205299613</v>
+        <v>395.2245205299612</v>
       </c>
       <c r="M21" t="n">
-        <v>495.532202733851</v>
+        <v>514.5419032905515</v>
       </c>
       <c r="N21" t="n">
         <v>543.714571154376</v>
@@ -36217,10 +36217,10 @@
         <v>429.0814793495699</v>
       </c>
       <c r="P21" t="n">
-        <v>327.7832499334201</v>
+        <v>212.146218598423</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>167.0326721210326</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,7 +36281,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>50.11136289232033</v>
+        <v>50.11136289232032</v>
       </c>
       <c r="L22" t="n">
         <v>120.492579780375</v>
@@ -36296,7 +36296,7 @@
         <v>113.507487571651</v>
       </c>
       <c r="P22" t="n">
-        <v>73.66821272853396</v>
+        <v>73.66821272853394</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>70.40534134273582</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>248.2184001629003</v>
@@ -36454,10 +36454,10 @@
         <v>429.0814793495699</v>
       </c>
       <c r="P24" t="n">
-        <v>308.7735493767197</v>
+        <v>327.7832499334201</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>51.39564078603548</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>70.40534134273582</v>
       </c>
       <c r="K27" t="n">
-        <v>62.17602748516736</v>
+        <v>248.2184001629003</v>
       </c>
       <c r="L27" t="n">
         <v>395.2245205299612</v>
@@ -36685,7 +36685,7 @@
         <v>514.5419032905515</v>
       </c>
       <c r="N27" t="n">
-        <v>543.714571154376</v>
+        <v>357.6721984766432</v>
       </c>
       <c r="O27" t="n">
         <v>429.0814793495699</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>70.40534134273582</v>
       </c>
       <c r="K30" t="n">
         <v>248.2184001629003</v>
@@ -36922,7 +36922,7 @@
         <v>514.5419032905515</v>
       </c>
       <c r="N30" t="n">
-        <v>428.0775398193789</v>
+        <v>357.6721984766432</v>
       </c>
       <c r="O30" t="n">
         <v>429.0814793495699</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>70.40534134273582</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>62.17602748516736</v>
+        <v>132.5813688279032</v>
       </c>
       <c r="L33" t="n">
         <v>395.2245205299612</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>51.3956407860353</v>
+        <v>70.40534134273582</v>
       </c>
       <c r="K36" t="n">
         <v>248.2184001629003</v>
@@ -37393,7 +37393,7 @@
         <v>395.2245205299612</v>
       </c>
       <c r="M36" t="n">
-        <v>514.5419032905515</v>
+        <v>328.4995306128187</v>
       </c>
       <c r="N36" t="n">
         <v>543.714571154376</v>
@@ -37405,7 +37405,7 @@
         <v>327.7832499334201</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>167.0326721210326</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>70.40534134273582</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>248.2184001629003</v>
@@ -37639,10 +37639,10 @@
         <v>429.0814793495699</v>
       </c>
       <c r="P39" t="n">
-        <v>141.7408772556873</v>
+        <v>327.7832499334201</v>
       </c>
       <c r="Q39" t="n">
-        <v>167.0326721210326</v>
+        <v>51.39564078603548</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>105.0124396425416</v>
+        <v>105.0124396425415</v>
       </c>
       <c r="K41" t="n">
         <v>280.8981351873249</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>70.40534134273582</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>62.17602748516736</v>
+        <v>132.5813688279032</v>
       </c>
       <c r="L42" t="n">
         <v>395.2245205299612</v>
@@ -38037,7 +38037,7 @@
         <v>288.2576462984487</v>
       </c>
       <c r="Q44" t="n">
-        <v>138.5104960466976</v>
+        <v>138.5104960466975</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>51.3956407860353</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>248.2184001629003</v>
@@ -38113,10 +38113,10 @@
         <v>429.0814793495699</v>
       </c>
       <c r="P45" t="n">
-        <v>327.7832499334201</v>
+        <v>212.146218598423</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>167.0326721210326</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
